--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1263"/>
+  <dimension ref="A1:L1266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -41601,6 +41601,126 @@
         <v>2039</v>
       </c>
     </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>2022-06-14</t>
+        </is>
+      </c>
+      <c r="B1264" t="n">
+        <v>61955</v>
+      </c>
+      <c r="C1264" t="n">
+        <v>-4054</v>
+      </c>
+      <c r="D1264" t="n">
+        <v>61148</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>57094</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>119049</v>
+      </c>
+      <c r="G1264" t="n">
+        <v>69339</v>
+      </c>
+      <c r="H1264" t="n">
+        <v>190426</v>
+      </c>
+      <c r="I1264" t="n">
+        <v>-15.24</v>
+      </c>
+      <c r="J1264" t="n">
+        <v>-11961</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>16141.91</v>
+      </c>
+      <c r="L1264" t="n">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>2022-06-14</t>
+        </is>
+      </c>
+      <c r="B1265" t="n">
+        <v>61955</v>
+      </c>
+      <c r="C1265" t="n">
+        <v>-4054</v>
+      </c>
+      <c r="D1265" t="n">
+        <v>61880</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>57826</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>119781</v>
+      </c>
+      <c r="G1265" t="n">
+        <v>69314</v>
+      </c>
+      <c r="H1265" t="n">
+        <v>191138</v>
+      </c>
+      <c r="I1265" t="n">
+        <v>-15.24</v>
+      </c>
+      <c r="J1265" t="n">
+        <v>-11944</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>16216.61</v>
+      </c>
+      <c r="L1265" t="n">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>2022-06-14</t>
+        </is>
+      </c>
+      <c r="B1266" t="n">
+        <v>61955</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>-4054</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>61974</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>57920</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>119875</v>
+      </c>
+      <c r="G1266" t="n">
+        <v>69306</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>191222</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>-15.24</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>-11951</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>16216.61</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>2041</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,18 +394,18 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1266"/>
+  <dimension ref="A1:L1265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="D1253" sqref="D1253"/>
+      <selection pane="bottomRight" activeCell="A1266" sqref="A1266:XFD1266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="7" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="24" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="23" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="25" bestFit="1" customWidth="1" min="4" max="4"/>
@@ -41571,154 +41571,114 @@
         <v>61955</v>
       </c>
       <c r="C1263" t="n">
-        <v>-4050</v>
+        <v>-4054</v>
       </c>
       <c r="D1263" t="n">
-        <v>61470</v>
+        <v>61974</v>
       </c>
       <c r="E1263" t="n">
-        <v>57420</v>
+        <v>57920</v>
       </c>
       <c r="F1263" t="n">
-        <v>119375</v>
+        <v>119875</v>
       </c>
       <c r="G1263" t="n">
-        <v>69403</v>
+        <v>69306</v>
       </c>
       <c r="H1263" t="n">
-        <v>190817</v>
+        <v>191222</v>
       </c>
       <c r="I1263" t="n">
         <v>-15.24</v>
       </c>
       <c r="J1263" t="n">
-        <v>-11954</v>
+        <v>-11951</v>
       </c>
       <c r="K1263" t="n">
-        <v>16380.08</v>
+        <v>16216.61</v>
       </c>
       <c r="L1263" t="n">
-        <v>2039</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="B1264" t="n">
         <v>61955</v>
       </c>
       <c r="C1264" t="n">
-        <v>-4054</v>
+        <v>-4145</v>
       </c>
       <c r="D1264" t="n">
-        <v>61148</v>
+        <v>62643</v>
       </c>
       <c r="E1264" t="n">
-        <v>57094</v>
+        <v>58498</v>
       </c>
       <c r="F1264" t="n">
-        <v>119049</v>
+        <v>120453</v>
       </c>
       <c r="G1264" t="n">
-        <v>69339</v>
+        <v>69350</v>
       </c>
       <c r="H1264" t="n">
-        <v>190426</v>
+        <v>191827</v>
       </c>
       <c r="I1264" t="n">
         <v>-15.24</v>
       </c>
       <c r="J1264" t="n">
-        <v>-11961</v>
+        <v>-11987</v>
       </c>
       <c r="K1264" t="n">
-        <v>16141.91</v>
+        <v>15976.84</v>
       </c>
       <c r="L1264" t="n">
-        <v>2038</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="B1265" t="n">
         <v>61955</v>
       </c>
       <c r="C1265" t="n">
-        <v>-4054</v>
+        <v>-4171</v>
       </c>
       <c r="D1265" t="n">
-        <v>61880</v>
+        <v>60701</v>
       </c>
       <c r="E1265" t="n">
-        <v>57826</v>
+        <v>56530</v>
       </c>
       <c r="F1265" t="n">
-        <v>119781</v>
+        <v>118485</v>
       </c>
       <c r="G1265" t="n">
-        <v>69314</v>
+        <v>69058</v>
       </c>
       <c r="H1265" t="n">
-        <v>191138</v>
+        <v>189533</v>
       </c>
       <c r="I1265" t="n">
         <v>-15.24</v>
       </c>
       <c r="J1265" t="n">
-        <v>-11944</v>
+        <v>-12001</v>
       </c>
       <c r="K1265" t="n">
-        <v>16216.61</v>
+        <v>16222.12</v>
       </c>
       <c r="L1265" t="n">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="1266">
-      <c r="A1266" t="inlineStr">
-        <is>
-          <t>2022-06-14</t>
-        </is>
-      </c>
-      <c r="B1266" t="n">
-        <v>61955</v>
-      </c>
-      <c r="C1266" t="n">
-        <v>-4054</v>
-      </c>
-      <c r="D1266" t="n">
-        <v>61974</v>
-      </c>
-      <c r="E1266" t="n">
-        <v>57920</v>
-      </c>
-      <c r="F1266" t="n">
-        <v>119875</v>
-      </c>
-      <c r="G1266" t="n">
-        <v>69306</v>
-      </c>
-      <c r="H1266" t="n">
-        <v>191222</v>
-      </c>
-      <c r="I1266" t="n">
-        <v>-15.24</v>
-      </c>
-      <c r="J1266" t="n">
-        <v>-11951</v>
-      </c>
-      <c r="K1266" t="n">
-        <v>16216.61</v>
-      </c>
-      <c r="L1266" t="n">
-        <v>2041</v>
+        <v>1990</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1265"/>
+  <dimension ref="A1:L1266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -41681,6 +41681,46 @@
         <v>1990</v>
       </c>
     </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>2022-06-17</t>
+        </is>
+      </c>
+      <c r="B1266" t="n">
+        <v>61955</v>
+      </c>
+      <c r="C1266" t="n">
+        <v>-4171</v>
+      </c>
+      <c r="D1266" t="n">
+        <v>60650</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>56479</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>118434</v>
+      </c>
+      <c r="G1266" t="n">
+        <v>69052</v>
+      </c>
+      <c r="H1266" t="n">
+        <v>189474</v>
+      </c>
+      <c r="I1266" t="n">
+        <v>-15.24</v>
+      </c>
+      <c r="J1266" t="n">
+        <v>-12009</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>16140.8</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>1988</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1266"/>
+  <dimension ref="A1:L1270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -41694,31 +41694,191 @@
         <v>-4171</v>
       </c>
       <c r="D1266" t="n">
-        <v>60650</v>
+        <v>60701</v>
       </c>
       <c r="E1266" t="n">
-        <v>56479</v>
+        <v>56530</v>
       </c>
       <c r="F1266" t="n">
-        <v>118434</v>
+        <v>118485</v>
       </c>
       <c r="G1266" t="n">
-        <v>69052</v>
+        <v>69078</v>
       </c>
       <c r="H1266" t="n">
-        <v>189474</v>
+        <v>189554</v>
       </c>
       <c r="I1266" t="n">
         <v>-15.24</v>
       </c>
       <c r="J1266" t="n">
-        <v>-12009</v>
+        <v>-12003</v>
       </c>
       <c r="K1266" t="n">
         <v>16140.8</v>
       </c>
       <c r="L1266" t="n">
-        <v>1988</v>
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>2022-06-18</t>
+        </is>
+      </c>
+      <c r="B1267" t="n">
+        <v>61955</v>
+      </c>
+      <c r="C1267" t="n">
+        <v>-4187</v>
+      </c>
+      <c r="D1267" t="n">
+        <v>61339</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>57152</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>119107</v>
+      </c>
+      <c r="G1267" t="n">
+        <v>69072</v>
+      </c>
+      <c r="H1267" t="n">
+        <v>190172</v>
+      </c>
+      <c r="I1267" t="n">
+        <v>-15.24</v>
+      </c>
+      <c r="J1267" t="n">
+        <v>-12014</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>16026.14</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>2022-06-19</t>
+        </is>
+      </c>
+      <c r="B1268" t="n">
+        <v>61955</v>
+      </c>
+      <c r="C1268" t="n">
+        <v>-4187</v>
+      </c>
+      <c r="D1268" t="n">
+        <v>61282</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>57095</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>119050</v>
+      </c>
+      <c r="G1268" t="n">
+        <v>69072</v>
+      </c>
+      <c r="H1268" t="n">
+        <v>190250</v>
+      </c>
+      <c r="I1268" t="n">
+        <v>-15.24</v>
+      </c>
+      <c r="J1268" t="n">
+        <v>-12036</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>15990.72</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="B1269" t="n">
+        <v>61955</v>
+      </c>
+      <c r="C1269" t="n">
+        <v>-4210</v>
+      </c>
+      <c r="D1269" t="n">
+        <v>61261</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>57051</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>119006</v>
+      </c>
+      <c r="G1269" t="n">
+        <v>69045</v>
+      </c>
+      <c r="H1269" t="n">
+        <v>190190</v>
+      </c>
+      <c r="I1269" t="n">
+        <v>-15.24</v>
+      </c>
+      <c r="J1269" t="n">
+        <v>-12013</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>16025.32</v>
+      </c>
+      <c r="L1269" t="n">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="B1270" t="n">
+        <v>61955</v>
+      </c>
+      <c r="C1270" t="n">
+        <v>-4208</v>
+      </c>
+      <c r="D1270" t="n">
+        <v>62309</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>58101</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>120056</v>
+      </c>
+      <c r="G1270" t="n">
+        <v>69013</v>
+      </c>
+      <c r="H1270" t="n">
+        <v>191200</v>
+      </c>
+      <c r="I1270" t="n">
+        <v>-15.24</v>
+      </c>
+      <c r="J1270" t="n">
+        <v>-12021</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>15484.88</v>
+      </c>
+      <c r="L1270" t="n">
+        <v>2131</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="96" windowWidth="16332" windowHeight="10836" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10836" windowWidth="16332" xWindow="480" yWindow="96"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porfelli Info" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" calcOnSave="0"/>
+  <calcPr calcId="0" calcOnSave="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,16 +46,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -394,29 +394,29 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1270"/>
+  <dimension ref="A1:L1271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1266" sqref="A1266:XFD1266"/>
+      <pane activePane="bottomRight" state="frozenSplit" topLeftCell="B1240" xSplit="1" ySplit="1"/>
+      <selection activeCell="A1" pane="topRight" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection activeCell="A1266" pane="bottomRight" sqref="A1266:XFD1266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col width="7" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="24" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="23" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="25" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="15" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="19" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="9" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="7"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="24"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="23"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="13"/>
+    <col customWidth="1" max="6" min="6" width="20"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="19"/>
+    <col customWidth="1" max="9" min="9" width="15"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" width="9"/>
+    <col customWidth="1" max="11" min="11" width="18"/>
+    <col customWidth="1" max="12" min="12" width="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -41881,9 +41881,49 @@
         <v>2131</v>
       </c>
     </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="B1271" t="n">
+        <v>61955</v>
+      </c>
+      <c r="C1271" t="n">
+        <v>-4208</v>
+      </c>
+      <c r="D1271" t="n">
+        <v>63118</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>58910</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>120865</v>
+      </c>
+      <c r="G1271" t="n">
+        <v>69149</v>
+      </c>
+      <c r="H1271" t="n">
+        <v>192194</v>
+      </c>
+      <c r="I1271" t="n">
+        <v>-15.24</v>
+      </c>
+      <c r="J1271" t="n">
+        <v>-11970</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>15440.94</v>
+      </c>
+      <c r="L1271" t="n">
+        <v>2180</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.37" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.61"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9" useFirstPageNumber="1" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -41894,25 +41894,25 @@
         <v>-4208</v>
       </c>
       <c r="D1271" t="n">
-        <v>63118</v>
+        <v>63022</v>
       </c>
       <c r="E1271" t="n">
-        <v>58910</v>
+        <v>58814</v>
       </c>
       <c r="F1271" t="n">
-        <v>120865</v>
+        <v>120769</v>
       </c>
       <c r="G1271" t="n">
         <v>69149</v>
       </c>
       <c r="H1271" t="n">
-        <v>192194</v>
+        <v>192098</v>
       </c>
       <c r="I1271" t="n">
         <v>-15.24</v>
       </c>
       <c r="J1271" t="n">
-        <v>-11970</v>
+        <v>-11968</v>
       </c>
       <c r="K1271" t="n">
         <v>15440.94</v>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1271"/>
+  <dimension ref="A1:L1272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomRight" state="frozenSplit" topLeftCell="B1240" xSplit="1" ySplit="1"/>
@@ -41921,6 +41921,46 @@
         <v>2180</v>
       </c>
     </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>2022-06-26</t>
+        </is>
+      </c>
+      <c r="B1272" t="n">
+        <v>61955</v>
+      </c>
+      <c r="C1272" t="n">
+        <v>-4208</v>
+      </c>
+      <c r="D1272" t="n">
+        <v>63912</v>
+      </c>
+      <c r="E1272" t="n">
+        <v>59704</v>
+      </c>
+      <c r="F1272" t="n">
+        <v>121659</v>
+      </c>
+      <c r="G1272" t="n">
+        <v>69332</v>
+      </c>
+      <c r="H1272" t="n">
+        <v>193194</v>
+      </c>
+      <c r="I1272" t="n">
+        <v>-15.24</v>
+      </c>
+      <c r="J1272" t="n">
+        <v>-13055</v>
+      </c>
+      <c r="K1272" t="n">
+        <v>15610.85</v>
+      </c>
+      <c r="L1272" t="n">
+        <v>2203</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.37" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.61"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10836" windowWidth="16332" xWindow="480" yWindow="96"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="96" windowWidth="16332" windowHeight="10836" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porfelli Info" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" calcOnSave="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -46,16 +46,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -394,29 +394,29 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1272"/>
+  <dimension ref="A1:L1282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="bottomRight" state="frozenSplit" topLeftCell="B1240" xSplit="1" ySplit="1"/>
-      <selection activeCell="A1" pane="topRight" sqref="A1"/>
-      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="A1266" pane="bottomRight" sqref="A1266:XFD1266"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1266" sqref="A1266:XFD1266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="7"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="24"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="23"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="13"/>
-    <col customWidth="1" max="6" min="6" width="20"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="15"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" width="19"/>
-    <col customWidth="1" max="9" min="9" width="15"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" width="9"/>
-    <col customWidth="1" max="11" min="11" width="18"/>
-    <col customWidth="1" max="12" min="12" width="20"/>
+    <col width="7" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="24" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="23" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="25" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="15" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="19" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="9" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -41961,9 +41961,409 @@
         <v>2203</v>
       </c>
     </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B1273" t="n">
+        <v>61955</v>
+      </c>
+      <c r="C1273" t="n">
+        <v>-4186</v>
+      </c>
+      <c r="D1273" t="n">
+        <v>63098</v>
+      </c>
+      <c r="E1273" t="n">
+        <v>58912</v>
+      </c>
+      <c r="F1273" t="n">
+        <v>120867</v>
+      </c>
+      <c r="G1273" t="n">
+        <v>69430</v>
+      </c>
+      <c r="H1273" t="n">
+        <v>192526</v>
+      </c>
+      <c r="I1273" t="n">
+        <v>-15.24</v>
+      </c>
+      <c r="J1273" t="n">
+        <v>-13071</v>
+      </c>
+      <c r="K1273" t="n">
+        <v>15910.3</v>
+      </c>
+      <c r="L1273" t="n">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>2022-06-29</t>
+        </is>
+      </c>
+      <c r="B1274" t="n">
+        <v>61955</v>
+      </c>
+      <c r="C1274" t="n">
+        <v>-4196</v>
+      </c>
+      <c r="D1274" t="n">
+        <v>61576</v>
+      </c>
+      <c r="E1274" t="n">
+        <v>57380</v>
+      </c>
+      <c r="F1274" t="n">
+        <v>119335</v>
+      </c>
+      <c r="G1274" t="n">
+        <v>69261</v>
+      </c>
+      <c r="H1274" t="n">
+        <v>190783</v>
+      </c>
+      <c r="I1274" t="n">
+        <v>-15.24</v>
+      </c>
+      <c r="J1274" t="n">
+        <v>-13097</v>
+      </c>
+      <c r="K1274" t="n">
+        <v>15735.04</v>
+      </c>
+      <c r="L1274" t="n">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="B1275" t="n">
+        <v>61955</v>
+      </c>
+      <c r="C1275" t="n">
+        <v>-4196</v>
+      </c>
+      <c r="D1275" t="n">
+        <v>61392</v>
+      </c>
+      <c r="E1275" t="n">
+        <v>57196</v>
+      </c>
+      <c r="F1275" t="n">
+        <v>119151</v>
+      </c>
+      <c r="G1275" t="n">
+        <v>69237</v>
+      </c>
+      <c r="H1275" t="n">
+        <v>190578</v>
+      </c>
+      <c r="I1275" t="n">
+        <v>-15.24</v>
+      </c>
+      <c r="J1275" t="n">
+        <v>-13095</v>
+      </c>
+      <c r="K1275" t="n">
+        <v>15415.83</v>
+      </c>
+      <c r="L1275" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+      <c r="B1276" t="n">
+        <v>61955</v>
+      </c>
+      <c r="C1276" t="n">
+        <v>-4121</v>
+      </c>
+      <c r="D1276" t="n">
+        <v>60238</v>
+      </c>
+      <c r="E1276" t="n">
+        <v>56117</v>
+      </c>
+      <c r="F1276" t="n">
+        <v>118072</v>
+      </c>
+      <c r="G1276" t="n">
+        <v>69091</v>
+      </c>
+      <c r="H1276" t="n">
+        <v>189335</v>
+      </c>
+      <c r="I1276" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1276" t="n">
+        <v>-13112</v>
+      </c>
+      <c r="K1276" t="n">
+        <v>15450.24</v>
+      </c>
+      <c r="L1276" t="n">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>2022-07-02</t>
+        </is>
+      </c>
+      <c r="B1277" t="n">
+        <v>61955</v>
+      </c>
+      <c r="C1277" t="n">
+        <v>-4121</v>
+      </c>
+      <c r="D1277" t="n">
+        <v>60842</v>
+      </c>
+      <c r="E1277" t="n">
+        <v>56721</v>
+      </c>
+      <c r="F1277" t="n">
+        <v>118676</v>
+      </c>
+      <c r="G1277" t="n">
+        <v>69163</v>
+      </c>
+      <c r="H1277" t="n">
+        <v>190017</v>
+      </c>
+      <c r="I1277" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1277" t="n">
+        <v>-13111</v>
+      </c>
+      <c r="K1277" t="n">
+        <v>15452.09</v>
+      </c>
+      <c r="L1277" t="n">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>2022-07-03</t>
+        </is>
+      </c>
+      <c r="B1278" t="n">
+        <v>61955</v>
+      </c>
+      <c r="C1278" t="n">
+        <v>-4121</v>
+      </c>
+      <c r="D1278" t="n">
+        <v>60716</v>
+      </c>
+      <c r="E1278" t="n">
+        <v>56595</v>
+      </c>
+      <c r="F1278" t="n">
+        <v>118550</v>
+      </c>
+      <c r="G1278" t="n">
+        <v>69163</v>
+      </c>
+      <c r="H1278" t="n">
+        <v>189889</v>
+      </c>
+      <c r="I1278" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1278" t="n">
+        <v>-13120</v>
+      </c>
+      <c r="K1278" t="n">
+        <v>15334.82</v>
+      </c>
+      <c r="L1278" t="n">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
+      </c>
+      <c r="B1279" t="n">
+        <v>61955</v>
+      </c>
+      <c r="C1279" t="n">
+        <v>-4139</v>
+      </c>
+      <c r="D1279" t="n">
+        <v>60664</v>
+      </c>
+      <c r="E1279" t="n">
+        <v>56525</v>
+      </c>
+      <c r="F1279" t="n">
+        <v>118480</v>
+      </c>
+      <c r="G1279" t="n">
+        <v>69237</v>
+      </c>
+      <c r="H1279" t="n">
+        <v>189899</v>
+      </c>
+      <c r="I1279" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1279" t="n">
+        <v>-13104</v>
+      </c>
+      <c r="K1279" t="n">
+        <v>15293.45</v>
+      </c>
+      <c r="L1279" t="n">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>2022-07-09</t>
+        </is>
+      </c>
+      <c r="B1280" t="n">
+        <v>62037</v>
+      </c>
+      <c r="C1280" t="n">
+        <v>-4138</v>
+      </c>
+      <c r="D1280" t="n">
+        <v>64599</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>60461</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>122498</v>
+      </c>
+      <c r="G1280" t="n">
+        <v>69528</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>194297</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>-13035</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>15018.74</v>
+      </c>
+      <c r="L1280" t="n">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>2022-07-10</t>
+        </is>
+      </c>
+      <c r="B1281" t="n">
+        <v>62037</v>
+      </c>
+      <c r="C1281" t="n">
+        <v>-4138</v>
+      </c>
+      <c r="D1281" t="n">
+        <v>64675</v>
+      </c>
+      <c r="E1281" t="n">
+        <v>60537</v>
+      </c>
+      <c r="F1281" t="n">
+        <v>122574</v>
+      </c>
+      <c r="G1281" t="n">
+        <v>69528</v>
+      </c>
+      <c r="H1281" t="n">
+        <v>194370</v>
+      </c>
+      <c r="I1281" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1281" t="n">
+        <v>-13043</v>
+      </c>
+      <c r="K1281" t="n">
+        <v>15103.06</v>
+      </c>
+      <c r="L1281" t="n">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>2022-07-12</t>
+        </is>
+      </c>
+      <c r="B1282" t="n">
+        <v>62037</v>
+      </c>
+      <c r="C1282" t="n">
+        <v>-4145</v>
+      </c>
+      <c r="D1282" t="n">
+        <v>63737</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>59592</v>
+      </c>
+      <c r="F1282" t="n">
+        <v>121629</v>
+      </c>
+      <c r="G1282" t="n">
+        <v>69392</v>
+      </c>
+      <c r="H1282" t="n">
+        <v>193257</v>
+      </c>
+      <c r="I1282" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1282" t="n">
+        <v>-13077</v>
+      </c>
+      <c r="K1282" t="n">
+        <v>15197.47</v>
+      </c>
+      <c r="L1282" t="n">
+        <v>2236</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.37" footer="0.1" header="0.1" left="0.3" right="0.3" top="0.61"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" pageOrder="overThenDown" paperSize="9" useFirstPageNumber="1" verticalDpi="300"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1282"/>
+  <dimension ref="A1:L1286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -42361,6 +42361,166 @@
         <v>2236</v>
       </c>
     </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B1283" t="n">
+        <v>62037</v>
+      </c>
+      <c r="C1283" t="n">
+        <v>-4166</v>
+      </c>
+      <c r="D1283" t="n">
+        <v>63031</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>58865</v>
+      </c>
+      <c r="F1283" t="n">
+        <v>120902</v>
+      </c>
+      <c r="G1283" t="n">
+        <v>69246</v>
+      </c>
+      <c r="H1283" t="n">
+        <v>192358</v>
+      </c>
+      <c r="I1283" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1283" t="n">
+        <v>-13094</v>
+      </c>
+      <c r="K1283" t="n">
+        <v>15002.3</v>
+      </c>
+      <c r="L1283" t="n">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B1284" t="n">
+        <v>62037</v>
+      </c>
+      <c r="C1284" t="n">
+        <v>-4214</v>
+      </c>
+      <c r="D1284" t="n">
+        <v>63011</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>58797</v>
+      </c>
+      <c r="F1284" t="n">
+        <v>120834</v>
+      </c>
+      <c r="G1284" t="n">
+        <v>69225</v>
+      </c>
+      <c r="H1284" t="n">
+        <v>192286</v>
+      </c>
+      <c r="I1284" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1284" t="n">
+        <v>-13077</v>
+      </c>
+      <c r="K1284" t="n">
+        <v>14980.74</v>
+      </c>
+      <c r="L1284" t="n">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
+      </c>
+      <c r="B1285" t="n">
+        <v>62037</v>
+      </c>
+      <c r="C1285" t="n">
+        <v>-4173</v>
+      </c>
+      <c r="D1285" t="n">
+        <v>63398</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>59225</v>
+      </c>
+      <c r="F1285" t="n">
+        <v>121262</v>
+      </c>
+      <c r="G1285" t="n">
+        <v>69305</v>
+      </c>
+      <c r="H1285" t="n">
+        <v>192817</v>
+      </c>
+      <c r="I1285" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1285" t="n">
+        <v>-13037</v>
+      </c>
+      <c r="K1285" t="n">
+        <v>14623.45</v>
+      </c>
+      <c r="L1285" t="n">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>2022-07-16</t>
+        </is>
+      </c>
+      <c r="B1286" t="n">
+        <v>62037</v>
+      </c>
+      <c r="C1286" t="n">
+        <v>-4173</v>
+      </c>
+      <c r="D1286" t="n">
+        <v>64337</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>60164</v>
+      </c>
+      <c r="F1286" t="n">
+        <v>122201</v>
+      </c>
+      <c r="G1286" t="n">
+        <v>69376</v>
+      </c>
+      <c r="H1286" t="n">
+        <v>193833</v>
+      </c>
+      <c r="I1286" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1286" t="n">
+        <v>-13050</v>
+      </c>
+      <c r="K1286" t="n">
+        <v>15069.16</v>
+      </c>
+      <c r="L1286" t="n">
+        <v>2256</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1286"/>
+  <dimension ref="A1:L1288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -42521,6 +42521,86 @@
         <v>2256</v>
       </c>
     </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>2022-07-18</t>
+        </is>
+      </c>
+      <c r="B1287" t="n">
+        <v>62645.5</v>
+      </c>
+      <c r="C1287" t="n">
+        <v>-4192</v>
+      </c>
+      <c r="D1287" t="n">
+        <v>64148</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>59956</v>
+      </c>
+      <c r="F1287" t="n">
+        <v>122601.5</v>
+      </c>
+      <c r="G1287" t="n">
+        <v>71115</v>
+      </c>
+      <c r="H1287" t="n">
+        <v>196118.5</v>
+      </c>
+      <c r="I1287" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1287" t="n">
+        <v>-12783</v>
+      </c>
+      <c r="K1287" t="n">
+        <v>14823.25</v>
+      </c>
+      <c r="L1287" t="n">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
+      </c>
+      <c r="B1288" t="n">
+        <v>62645.5</v>
+      </c>
+      <c r="C1288" t="n">
+        <v>-4169</v>
+      </c>
+      <c r="D1288" t="n">
+        <v>62895</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>58726</v>
+      </c>
+      <c r="F1288" t="n">
+        <v>121371.5</v>
+      </c>
+      <c r="G1288" t="n">
+        <v>71052</v>
+      </c>
+      <c r="H1288" t="n">
+        <v>194800.5</v>
+      </c>
+      <c r="I1288" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1288" t="n">
+        <v>-12782</v>
+      </c>
+      <c r="K1288" t="n">
+        <v>14306.9</v>
+      </c>
+      <c r="L1288" t="n">
+        <v>2377</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1288"/>
+  <dimension ref="A1:L1291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -42601,6 +42601,126 @@
         <v>2377</v>
       </c>
     </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>2022-07-20</t>
+        </is>
+      </c>
+      <c r="B1289" t="n">
+        <v>62645.5</v>
+      </c>
+      <c r="C1289" t="n">
+        <v>-4112</v>
+      </c>
+      <c r="D1289" t="n">
+        <v>64514</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>60402</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>123047.5</v>
+      </c>
+      <c r="G1289" t="n">
+        <v>71246</v>
+      </c>
+      <c r="H1289" t="n">
+        <v>196712.5</v>
+      </c>
+      <c r="I1289" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1289" t="n">
+        <v>-12733</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>14050.48</v>
+      </c>
+      <c r="L1289" t="n">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>2022-07-21</t>
+        </is>
+      </c>
+      <c r="B1290" t="n">
+        <v>62645.5</v>
+      </c>
+      <c r="C1290" t="n">
+        <v>-4117</v>
+      </c>
+      <c r="D1290" t="n">
+        <v>65270</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>61153</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>123798.5</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>71317</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>197556.5</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1290" t="n">
+        <v>-12773</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>14611.7</v>
+      </c>
+      <c r="L1290" t="n">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>2022-07-22</t>
+        </is>
+      </c>
+      <c r="B1291" t="n">
+        <v>62645.5</v>
+      </c>
+      <c r="C1291" t="n">
+        <v>-4129</v>
+      </c>
+      <c r="D1291" t="n">
+        <v>66702</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>62573</v>
+      </c>
+      <c r="F1291" t="n">
+        <v>125218.5</v>
+      </c>
+      <c r="G1291" t="n">
+        <v>71308</v>
+      </c>
+      <c r="H1291" t="n">
+        <v>198991.5</v>
+      </c>
+      <c r="I1291" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1291" t="n">
+        <v>-12734</v>
+      </c>
+      <c r="K1291" t="n">
+        <v>14416.58</v>
+      </c>
+      <c r="L1291" t="n">
+        <v>2465</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1291"/>
+  <dimension ref="A1:L1293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -42721,6 +42721,86 @@
         <v>2465</v>
       </c>
     </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>2022-07-23</t>
+        </is>
+      </c>
+      <c r="B1292" t="n">
+        <v>62645.5</v>
+      </c>
+      <c r="C1292" t="n">
+        <v>-4129</v>
+      </c>
+      <c r="D1292" t="n">
+        <v>65248</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>61119</v>
+      </c>
+      <c r="F1292" t="n">
+        <v>123764.5</v>
+      </c>
+      <c r="G1292" t="n">
+        <v>71275</v>
+      </c>
+      <c r="H1292" t="n">
+        <v>197483.5</v>
+      </c>
+      <c r="I1292" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1292" t="n">
+        <v>-12779</v>
+      </c>
+      <c r="K1292" t="n">
+        <v>14533.45</v>
+      </c>
+      <c r="L1292" t="n">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>2022-07-24</t>
+        </is>
+      </c>
+      <c r="B1293" t="n">
+        <v>62645.5</v>
+      </c>
+      <c r="C1293" t="n">
+        <v>-4129</v>
+      </c>
+      <c r="D1293" t="n">
+        <v>65199</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>61070</v>
+      </c>
+      <c r="F1293" t="n">
+        <v>123715.5</v>
+      </c>
+      <c r="G1293" t="n">
+        <v>71275</v>
+      </c>
+      <c r="H1293" t="n">
+        <v>197443.5</v>
+      </c>
+      <c r="I1293" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1293" t="n">
+        <v>-12758</v>
+      </c>
+      <c r="K1293" t="n">
+        <v>14463.15</v>
+      </c>
+      <c r="L1293" t="n">
+        <v>2453</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1293"/>
+  <dimension ref="A1:L1294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -42774,31 +42774,71 @@
         <v>-4129</v>
       </c>
       <c r="D1293" t="n">
-        <v>65199</v>
+        <v>65235</v>
       </c>
       <c r="E1293" t="n">
-        <v>61070</v>
+        <v>61106</v>
       </c>
       <c r="F1293" t="n">
-        <v>123715.5</v>
+        <v>123751.5</v>
       </c>
       <c r="G1293" t="n">
         <v>71275</v>
       </c>
       <c r="H1293" t="n">
-        <v>197443.5</v>
+        <v>197479.5</v>
       </c>
       <c r="I1293" t="n">
         <v>-17.03</v>
       </c>
       <c r="J1293" t="n">
-        <v>-12758</v>
+        <v>-12756</v>
       </c>
       <c r="K1293" t="n">
-        <v>14463.15</v>
+        <v>14496.74</v>
       </c>
       <c r="L1293" t="n">
         <v>2453</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>2022-07-25</t>
+        </is>
+      </c>
+      <c r="B1294" t="n">
+        <v>62645.5</v>
+      </c>
+      <c r="C1294" t="n">
+        <v>-4167</v>
+      </c>
+      <c r="D1294" t="n">
+        <v>65039</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>60872</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>123517.5</v>
+      </c>
+      <c r="G1294" t="n">
+        <v>71257</v>
+      </c>
+      <c r="H1294" t="n">
+        <v>197208.5</v>
+      </c>
+      <c r="I1294" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1294" t="n">
+        <v>-12787</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>14452.64</v>
+      </c>
+      <c r="L1294" t="n">
+        <v>2434</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1294"/>
+  <dimension ref="A1:L1296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -42841,6 +42841,86 @@
         <v>2434</v>
       </c>
     </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
+        </is>
+      </c>
+      <c r="B1295" t="n">
+        <v>62645.5</v>
+      </c>
+      <c r="C1295" t="n">
+        <v>-4160</v>
+      </c>
+      <c r="D1295" t="n">
+        <v>64286</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>60126</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>122771.5</v>
+      </c>
+      <c r="G1295" t="n">
+        <v>71243</v>
+      </c>
+      <c r="H1295" t="n">
+        <v>196432.5</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>-12816</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>14211.27</v>
+      </c>
+      <c r="L1295" t="n">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="B1296" t="n">
+        <v>62645.5</v>
+      </c>
+      <c r="C1296" t="n">
+        <v>-4182</v>
+      </c>
+      <c r="D1296" t="n">
+        <v>65007</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>60825</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>123470.5</v>
+      </c>
+      <c r="G1296" t="n">
+        <v>71267</v>
+      </c>
+      <c r="H1296" t="n">
+        <v>197180.5</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>-12794</v>
+      </c>
+      <c r="K1296" t="n">
+        <v>14186.6</v>
+      </c>
+      <c r="L1296" t="n">
+        <v>2443</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1296"/>
+  <dimension ref="A1:L1298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -42921,6 +42921,86 @@
         <v>2443</v>
       </c>
     </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>2022-07-28</t>
+        </is>
+      </c>
+      <c r="B1297" t="n">
+        <v>62645.5</v>
+      </c>
+      <c r="C1297" t="n">
+        <v>-4160</v>
+      </c>
+      <c r="D1297" t="n">
+        <v>66039</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>61879</v>
+      </c>
+      <c r="F1297" t="n">
+        <v>124524.5</v>
+      </c>
+      <c r="G1297" t="n">
+        <v>71427</v>
+      </c>
+      <c r="H1297" t="n">
+        <v>198451.5</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>-12743</v>
+      </c>
+      <c r="K1297" t="n">
+        <v>14485.49</v>
+      </c>
+      <c r="L1297" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="B1298" t="n">
+        <v>62645.5</v>
+      </c>
+      <c r="C1298" t="n">
+        <v>-4171</v>
+      </c>
+      <c r="D1298" t="n">
+        <v>68195</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>64024</v>
+      </c>
+      <c r="F1298" t="n">
+        <v>126669.5</v>
+      </c>
+      <c r="G1298" t="n">
+        <v>71602</v>
+      </c>
+      <c r="H1298" t="n">
+        <v>200795.5</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>-12720</v>
+      </c>
+      <c r="K1298" t="n">
+        <v>14281.95</v>
+      </c>
+      <c r="L1298" t="n">
+        <v>2524</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1298"/>
+  <dimension ref="A1:L1301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -43001,6 +43001,126 @@
         <v>2524</v>
       </c>
     </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>2022-07-30</t>
+        </is>
+      </c>
+      <c r="B1299" t="n">
+        <v>62645.5</v>
+      </c>
+      <c r="C1299" t="n">
+        <v>-4171</v>
+      </c>
+      <c r="D1299" t="n">
+        <v>68428</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>64257</v>
+      </c>
+      <c r="F1299" t="n">
+        <v>126902.5</v>
+      </c>
+      <c r="G1299" t="n">
+        <v>71604</v>
+      </c>
+      <c r="H1299" t="n">
+        <v>201027.5</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>-17.03</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>-12722</v>
+      </c>
+      <c r="K1299" t="n">
+        <v>14527.8</v>
+      </c>
+      <c r="L1299" t="n">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="B1300" t="n">
+        <v>62645.5</v>
+      </c>
+      <c r="C1300" t="n">
+        <v>-4200</v>
+      </c>
+      <c r="D1300" t="n">
+        <v>68269</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>64069</v>
+      </c>
+      <c r="F1300" t="n">
+        <v>126714.5</v>
+      </c>
+      <c r="G1300" t="n">
+        <v>71589</v>
+      </c>
+      <c r="H1300" t="n">
+        <v>200815.5</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>-12741</v>
+      </c>
+      <c r="K1300" t="n">
+        <v>14558.72</v>
+      </c>
+      <c r="L1300" t="n">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="B1301" t="n">
+        <v>62645.5</v>
+      </c>
+      <c r="C1301" t="n">
+        <v>-4199</v>
+      </c>
+      <c r="D1301" t="n">
+        <v>68191</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>63992</v>
+      </c>
+      <c r="F1301" t="n">
+        <v>126637.5</v>
+      </c>
+      <c r="G1301" t="n">
+        <v>71567</v>
+      </c>
+      <c r="H1301" t="n">
+        <v>200708.5</v>
+      </c>
+      <c r="I1301" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1301" t="n">
+        <v>-12760</v>
+      </c>
+      <c r="K1301" t="n">
+        <v>14409.1</v>
+      </c>
+      <c r="L1301" t="n">
+        <v>2504</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1301"/>
+  <dimension ref="A1:L1305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -43121,6 +43121,166 @@
         <v>2504</v>
       </c>
     </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="B1302" t="n">
+        <v>62645.5</v>
+      </c>
+      <c r="C1302" t="n">
+        <v>-4189</v>
+      </c>
+      <c r="D1302" t="n">
+        <v>68531</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>64342</v>
+      </c>
+      <c r="F1302" t="n">
+        <v>126987.5</v>
+      </c>
+      <c r="G1302" t="n">
+        <v>71567</v>
+      </c>
+      <c r="H1302" t="n">
+        <v>201080.5</v>
+      </c>
+      <c r="I1302" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1302" t="n">
+        <v>-12737</v>
+      </c>
+      <c r="K1302" t="n">
+        <v>14403.09</v>
+      </c>
+      <c r="L1302" t="n">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B1303" t="n">
+        <v>62645.5</v>
+      </c>
+      <c r="C1303" t="n">
+        <v>-4185</v>
+      </c>
+      <c r="D1303" t="n">
+        <v>69676</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>65491</v>
+      </c>
+      <c r="F1303" t="n">
+        <v>128136.5</v>
+      </c>
+      <c r="G1303" t="n">
+        <v>71760</v>
+      </c>
+      <c r="H1303" t="n">
+        <v>202473.5</v>
+      </c>
+      <c r="I1303" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1303" t="n">
+        <v>-12754</v>
+      </c>
+      <c r="K1303" t="n">
+        <v>14398.37</v>
+      </c>
+      <c r="L1303" t="n">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="B1304" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1304" t="n">
+        <v>-4167</v>
+      </c>
+      <c r="D1304" t="n">
+        <v>69768</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>65601</v>
+      </c>
+      <c r="F1304" t="n">
+        <v>128328.5</v>
+      </c>
+      <c r="G1304" t="n">
+        <v>71695</v>
+      </c>
+      <c r="H1304" t="n">
+        <v>202616.5</v>
+      </c>
+      <c r="I1304" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1304" t="n">
+        <v>-12742</v>
+      </c>
+      <c r="K1304" t="n">
+        <v>14604.69</v>
+      </c>
+      <c r="L1304" t="n">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="B1305" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1305" t="n">
+        <v>-4171</v>
+      </c>
+      <c r="D1305" t="n">
+        <v>67981</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>63810</v>
+      </c>
+      <c r="F1305" t="n">
+        <v>126537.5</v>
+      </c>
+      <c r="G1305" t="n">
+        <v>71675</v>
+      </c>
+      <c r="H1305" t="n">
+        <v>200858.5</v>
+      </c>
+      <c r="I1305" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1305" t="n">
+        <v>-12743</v>
+      </c>
+      <c r="K1305" t="n">
+        <v>14281.62</v>
+      </c>
+      <c r="L1305" t="n">
+        <v>2646</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1305"/>
+  <dimension ref="A1:L1306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -43281,6 +43281,46 @@
         <v>2646</v>
       </c>
     </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
+      </c>
+      <c r="B1306" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1306" t="n">
+        <v>-4139</v>
+      </c>
+      <c r="D1306" t="n">
+        <v>68955</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>64816</v>
+      </c>
+      <c r="F1306" t="n">
+        <v>127543.5</v>
+      </c>
+      <c r="G1306" t="n">
+        <v>71972</v>
+      </c>
+      <c r="H1306" t="n">
+        <v>202403.5</v>
+      </c>
+      <c r="I1306" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1306" t="n">
+        <v>-12736</v>
+      </c>
+      <c r="K1306" t="n">
+        <v>14471.53</v>
+      </c>
+      <c r="L1306" t="n">
+        <v>2888</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1306"/>
+  <dimension ref="A1:L1312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -43321,6 +43321,246 @@
         <v>2888</v>
       </c>
     </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>2022-08-11</t>
+        </is>
+      </c>
+      <c r="B1307" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1307" t="n">
+        <v>-4096</v>
+      </c>
+      <c r="D1307" t="n">
+        <v>69848</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>65752</v>
+      </c>
+      <c r="F1307" t="n">
+        <v>128479.5</v>
+      </c>
+      <c r="G1307" t="n">
+        <v>72057</v>
+      </c>
+      <c r="H1307" t="n">
+        <v>203391.5</v>
+      </c>
+      <c r="I1307" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1307" t="n">
+        <v>-12713</v>
+      </c>
+      <c r="K1307" t="n">
+        <v>14327.83</v>
+      </c>
+      <c r="L1307" t="n">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="B1308" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1308" t="n">
+        <v>-4065</v>
+      </c>
+      <c r="D1308" t="n">
+        <v>70414</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>66349</v>
+      </c>
+      <c r="F1308" t="n">
+        <v>129076.5</v>
+      </c>
+      <c r="G1308" t="n">
+        <v>72121</v>
+      </c>
+      <c r="H1308" t="n">
+        <v>204058.5</v>
+      </c>
+      <c r="I1308" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1308" t="n">
+        <v>-12724</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>14571.89</v>
+      </c>
+      <c r="L1308" t="n">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>2022-08-13</t>
+        </is>
+      </c>
+      <c r="B1309" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1309" t="n">
+        <v>-4065</v>
+      </c>
+      <c r="D1309" t="n">
+        <v>71153</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>67088</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>129815.5</v>
+      </c>
+      <c r="G1309" t="n">
+        <v>72185</v>
+      </c>
+      <c r="H1309" t="n">
+        <v>204880.5</v>
+      </c>
+      <c r="I1309" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1309" t="n">
+        <v>-12701</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>14747.49</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>2022-08-14</t>
+        </is>
+      </c>
+      <c r="B1310" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1310" t="n">
+        <v>-4065</v>
+      </c>
+      <c r="D1310" t="n">
+        <v>71169</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>67104</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>129831.5</v>
+      </c>
+      <c r="G1310" t="n">
+        <v>72185</v>
+      </c>
+      <c r="H1310" t="n">
+        <v>204895.5</v>
+      </c>
+      <c r="I1310" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1310" t="n">
+        <v>-12701</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>14762.83</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>2022-08-15</t>
+        </is>
+      </c>
+      <c r="B1311" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1311" t="n">
+        <v>-4077</v>
+      </c>
+      <c r="D1311" t="n">
+        <v>71409</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>67332</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>130059.5</v>
+      </c>
+      <c r="G1311" t="n">
+        <v>72223</v>
+      </c>
+      <c r="H1311" t="n">
+        <v>205187.5</v>
+      </c>
+      <c r="I1311" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>-12719</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>14672.04</v>
+      </c>
+      <c r="L1311" t="n">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
+      </c>
+      <c r="B1312" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>-4124</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>73085</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>68961</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>131688.5</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>72120</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>206688.5</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>-3168</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>14793.19</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>2880</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1312"/>
+  <dimension ref="A1:L1317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -43561,6 +43561,206 @@
         <v>2880</v>
       </c>
     </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>2022-08-19</t>
+        </is>
+      </c>
+      <c r="B1313" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>-4128</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>73744</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>69616</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>132343.5</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>72169</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>207369.5</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>-3224</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>14873.61</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="B1314" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>-4171</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>71841</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>67670</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>130397.5</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>71934</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>205122.5</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>-3238</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>14858.31</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B1315" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>-4193</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>71706</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>67513</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>130240.5</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>71810</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>204847.5</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>-3221</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>14874.56</v>
+      </c>
+      <c r="L1315" t="n">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>2022-08-25</t>
+        </is>
+      </c>
+      <c r="B1316" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>-4201</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>67353</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>63152</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>125879.5</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>71874</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>200561.5</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>-3213</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>14765.61</v>
+      </c>
+      <c r="L1316" t="n">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="B1317" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>-4200</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>69678</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>65478</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>128205.5</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>71898</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>202902.5</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>-3249</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>14644.76</v>
+      </c>
+      <c r="L1317" t="n">
+        <v>2799</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1317"/>
+  <dimension ref="A1:L1318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -43761,6 +43761,46 @@
         <v>2799</v>
       </c>
     </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>2022-08-27</t>
+        </is>
+      </c>
+      <c r="B1318" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>-4200</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>68929</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>64729</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>127456.5</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>71810</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>202056.5</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>-3272</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>14565.16</v>
+      </c>
+      <c r="L1318" t="n">
+        <v>2790</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1318"/>
+  <dimension ref="A1:L1324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -43801,6 +43801,246 @@
         <v>2790</v>
       </c>
     </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>2022-08-28</t>
+        </is>
+      </c>
+      <c r="B1319" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>-4200</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>68553</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>64353</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>127080.5</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>71810</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>201679.5</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>-3275</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>14192.33</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+      <c r="B1320" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>-4200</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>69118</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>64918</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>127645.5</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>71810</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>202241.5</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>-3282</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>14622.1</v>
+      </c>
+      <c r="L1320" t="n">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+      <c r="B1321" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>-4208</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>67569</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>63361</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>126088.5</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>71561</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>200377.5</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>-3257</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>14126.97</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="B1322" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>-4210</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>67522</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>63312</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>126039.5</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>71491</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>200242.5</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>-3260</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>14511.18</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="B1323" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>-4237</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>65991</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>61754</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>124481.5</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>71298</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>198486.5</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>-3267</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>14148.98</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>2022-09-04</t>
+        </is>
+      </c>
+      <c r="B1324" t="n">
+        <v>62727.5</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>-4237</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>65999</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>61762</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>124489.5</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>71286</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>198479.5</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>-3271</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>14288.35</v>
+      </c>
+      <c r="L1324" t="n">
+        <v>2704</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1324"/>
+  <dimension ref="A1:L1331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -44041,6 +44041,286 @@
         <v>2704</v>
       </c>
     </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="B1325" t="n">
+        <v>62809.5</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>-4259</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>65993</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>61734</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>124543.5</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>71241</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>198486.5</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>-3254</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>14040.59</v>
+      </c>
+      <c r="L1325" t="n">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>2022-09-07</t>
+        </is>
+      </c>
+      <c r="B1326" t="n">
+        <v>62809.5</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>-4263</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>64860</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>60597</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>123406.5</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>71183</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>197271.5</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>-3290</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>13541.47</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>2022-09-09</t>
+        </is>
+      </c>
+      <c r="B1327" t="n">
+        <v>62809.5</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>-4242</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>66448</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>62206</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>125015.5</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>71466</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>199215.5</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>-3228</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>13572.7</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>2022-09-10</t>
+        </is>
+      </c>
+      <c r="B1328" t="n">
+        <v>62809.5</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>-4242</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>66167</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>61925</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>124734.5</v>
+      </c>
+      <c r="G1328" t="n">
+        <v>71548</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>199033.5</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>-3230</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>13510.7</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="B1329" t="n">
+        <v>62809.5</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>-4204</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>65025</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>60821</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>123630.5</v>
+      </c>
+      <c r="G1329" t="n">
+        <v>71223</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>197515.5</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>-3282</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>13443.69</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>2022-09-17</t>
+        </is>
+      </c>
+      <c r="B1330" t="n">
+        <v>62809.5</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>-4215</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>64164</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>59949</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>122758.5</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>71059</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>196444.5</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>-3290</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>13294.16</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>2022-09-18</t>
+        </is>
+      </c>
+      <c r="B1331" t="n">
+        <v>62809.5</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>-4215</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>64162</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>59947</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>122756.5</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>71059</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>196443.5</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>-3286</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>13288.46</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>2628</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1331"/>
+  <dimension ref="A1:L1334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -44321,6 +44321,126 @@
         <v>2628</v>
       </c>
     </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B1332" t="n">
+        <v>62809.5</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>-4215</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>63992</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>59777</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>122586.5</v>
+      </c>
+      <c r="G1332" t="n">
+        <v>71005</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>196191.5</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>-3311</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>13012.41</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>2022-09-21</t>
+        </is>
+      </c>
+      <c r="B1333" t="n">
+        <v>62809.5</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>-4252</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>64604</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>60352</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>123161.5</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>70944</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>196698.5</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>-3303</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>13096.83</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>2022-09-24</t>
+        </is>
+      </c>
+      <c r="B1334" t="n">
+        <v>62809.5</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>-4252</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>62406</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>58154</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>120963.5</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>70512</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>193997.5</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>-3297</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>12639.33</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>2522</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -44414,31 +44414,31 @@
         <v>-4252</v>
       </c>
       <c r="D1334" t="n">
-        <v>62406</v>
+        <v>62893</v>
       </c>
       <c r="E1334" t="n">
-        <v>58154</v>
+        <v>58641</v>
       </c>
       <c r="F1334" t="n">
-        <v>120963.5</v>
+        <v>121450.5</v>
       </c>
       <c r="G1334" t="n">
-        <v>70512</v>
+        <v>70637</v>
       </c>
       <c r="H1334" t="n">
-        <v>193997.5</v>
+        <v>194762.5</v>
       </c>
       <c r="I1334" t="n">
         <v>13.18</v>
       </c>
       <c r="J1334" t="n">
-        <v>-3297</v>
+        <v>-2770</v>
       </c>
       <c r="K1334" t="n">
-        <v>12639.33</v>
+        <v>12599.03</v>
       </c>
       <c r="L1334" t="n">
-        <v>2522</v>
+        <v>2675</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1334"/>
+  <dimension ref="A1:L1336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -44441,6 +44441,86 @@
         <v>2675</v>
       </c>
     </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="B1335" t="n">
+        <v>62809.5</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>-4341</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>60718</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>56377</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>119186.5</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>70435</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>192301.5</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>-2763</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>12183.49</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>2022-10-01</t>
+        </is>
+      </c>
+      <c r="B1336" t="n">
+        <v>62809.5</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>-4341</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>59849</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>55508</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>118317.5</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>70336</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>191306.5</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>-2773</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>12130.47</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>2653</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1336"/>
+  <dimension ref="A1:L1340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -44521,6 +44521,166 @@
         <v>2653</v>
       </c>
     </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>2022-10-03</t>
+        </is>
+      </c>
+      <c r="B1337" t="n">
+        <v>62809.5</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>-4370</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>59973</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>55603</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>118412.5</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>70360</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>191406.5</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>-2774</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>12051.19</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>2022-10-10</t>
+        </is>
+      </c>
+      <c r="B1338" t="n">
+        <v>62891.5</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>-4321</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>59479</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>55158</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>118049.5</v>
+      </c>
+      <c r="G1338" t="n">
+        <v>70359</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>191075.5</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>-2772</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>12670.98</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>2022-10-12</t>
+        </is>
+      </c>
+      <c r="B1339" t="n">
+        <v>62891.5</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>-4365</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>58866</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>54501</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>117392.5</v>
+      </c>
+      <c r="G1339" t="n">
+        <v>71182</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>191370.5</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>-2440</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>12147.27</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>2022-10-14</t>
+        </is>
+      </c>
+      <c r="B1340" t="n">
+        <v>62891.5</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>-4463</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>58399</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>53936</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>116827.5</v>
+      </c>
+      <c r="G1340" t="n">
+        <v>71299</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>190921.5</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>-2437</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>12336.41</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>2795</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1340"/>
+  <dimension ref="A1:L1348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -44681,6 +44681,326 @@
         <v>2795</v>
       </c>
     </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>2022-10-19</t>
+        </is>
+      </c>
+      <c r="B1341" t="n">
+        <v>62891.5</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>-4468</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>59350</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>54882</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>117773.5</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>71528</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>192117.5</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>-2442</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>12198.89</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>2022-10-21</t>
+        </is>
+      </c>
+      <c r="B1342" t="n">
+        <v>62891.5</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>-4481</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>59172</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>54691</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>117582.5</v>
+      </c>
+      <c r="G1342" t="n">
+        <v>71347</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>191709.5</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>-2453</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>12340.38</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>2022-10-23</t>
+        </is>
+      </c>
+      <c r="B1343" t="n">
+        <v>62891.5</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>-4481</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>59693</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>55212</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>118103.5</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>71500</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>192413.5</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>-2446</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>12271.63</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
+      </c>
+      <c r="B1344" t="n">
+        <v>62891.5</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>-4477</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>59297</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>54820</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>117711.5</v>
+      </c>
+      <c r="G1344" t="n">
+        <v>71607</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>192159.5</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>-2442</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>12368.2</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>2022-10-28</t>
+        </is>
+      </c>
+      <c r="B1345" t="n">
+        <v>62891.5</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>-4495</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>59000</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>54505</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>117396.5</v>
+      </c>
+      <c r="G1345" t="n">
+        <v>71766</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>191999.5</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>-2395</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>12587.65</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>2022-10-31</t>
+        </is>
+      </c>
+      <c r="B1346" t="n">
+        <v>62891.5</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>-4481</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>59605</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>55124</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>118015.5</v>
+      </c>
+      <c r="G1346" t="n">
+        <v>71878</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>192769.5</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>-2390</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>12908.16</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>2022-11-04</t>
+        </is>
+      </c>
+      <c r="B1347" t="n">
+        <v>62891.5</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>-4393</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>57271</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>52878</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>115769.5</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>71681</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>190247.5</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>-2366</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>13014.01</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>2022-11-05</t>
+        </is>
+      </c>
+      <c r="B1348" t="n">
+        <v>62974.5</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>-4393</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>57227</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>52834</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>115808.5</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>71680</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>190277.5</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>-2369</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>13057.51</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>2789</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1348"/>
+  <dimension ref="A1:L1350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -45001,6 +45001,86 @@
         <v>2789</v>
       </c>
     </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>2022-11-06</t>
+        </is>
+      </c>
+      <c r="B1349" t="n">
+        <v>62974.5</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>-4393</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>57275</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>52882</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>115856.5</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>71680</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>190326.5</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>-2369</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>13106.41</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>2022-11-08</t>
+        </is>
+      </c>
+      <c r="B1350" t="n">
+        <v>62505.5</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>-4327</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>56784</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>52457</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>114962.5</v>
+      </c>
+      <c r="G1350" t="n">
+        <v>71854</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>189598.5</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>-2443</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>12986.9</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>2782</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1350"/>
+  <dimension ref="A1:L1354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -45081,6 +45081,166 @@
         <v>2782</v>
       </c>
     </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>2022-11-09</t>
+        </is>
+      </c>
+      <c r="B1351" t="n">
+        <v>62505.5</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>-4353</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>55422</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>51069</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>113574.5</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>71787</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>188109.5</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>-2307</v>
+      </c>
+      <c r="K1351" t="n">
+        <v>12274.15</v>
+      </c>
+      <c r="L1351" t="n">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>2022-11-11</t>
+        </is>
+      </c>
+      <c r="B1352" t="n">
+        <v>62505.5</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>-4341</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>57368</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>53027</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>115532.5</v>
+      </c>
+      <c r="G1352" t="n">
+        <v>72232</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>190576.5</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>-2018</v>
+      </c>
+      <c r="K1352" t="n">
+        <v>11417.75</v>
+      </c>
+      <c r="L1352" t="n">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>2022-11-13</t>
+        </is>
+      </c>
+      <c r="B1353" t="n">
+        <v>62505.5</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>-4341</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>57713</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>53372</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>115877.5</v>
+      </c>
+      <c r="G1353" t="n">
+        <v>72297</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>190995.5</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>-2026</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>11572.21</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>2022-11-18</t>
+        </is>
+      </c>
+      <c r="B1354" t="n">
+        <v>62505.5</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>-4331</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>58357</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>54026</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>116531.5</v>
+      </c>
+      <c r="G1354" t="n">
+        <v>72201</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>191754.5</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>-1206</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>11817.22</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>3022</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1354"/>
+  <dimension ref="A1:L1355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -45241,6 +45241,46 @@
         <v>3022</v>
       </c>
     </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>2022-11-26</t>
+        </is>
+      </c>
+      <c r="B1355" t="n">
+        <v>62505.5</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>-4403</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>56936</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>52533</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>115038.5</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>72300</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>190344.5</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>-1854</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>11537.31</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>3006</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1355"/>
+  <dimension ref="A1:L1356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -45281,6 +45281,46 @@
         <v>3006</v>
       </c>
     </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>2022-12-03</t>
+        </is>
+      </c>
+      <c r="B1356" t="n">
+        <v>62505.5</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>-4406</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>57650</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>53244</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>115749.5</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>72367</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>191170.5</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>-1842</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>11611.6</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>3054</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1356"/>
+  <dimension ref="A1:L1357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -45321,6 +45321,46 @@
         <v>3054</v>
       </c>
     </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>2022-12-12</t>
+        </is>
+      </c>
+      <c r="B1357" t="n">
+        <v>62580.5</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>-4436</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>56230</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>51794</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>114374.5</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>72058</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>189426.5</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>-1845</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>12124.47</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>2994</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1357"/>
+  <dimension ref="A1:L1358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -45331,34 +45331,74 @@
         <v>62580.5</v>
       </c>
       <c r="C1357" t="n">
-        <v>-4436</v>
+        <v>-4438</v>
       </c>
       <c r="D1357" t="n">
-        <v>56230</v>
+        <v>56061</v>
       </c>
       <c r="E1357" t="n">
-        <v>51794</v>
+        <v>51623</v>
       </c>
       <c r="F1357" t="n">
-        <v>114374.5</v>
+        <v>114203.5</v>
       </c>
       <c r="G1357" t="n">
-        <v>72058</v>
+        <v>72068</v>
       </c>
       <c r="H1357" t="n">
-        <v>189426.5</v>
+        <v>189267.5</v>
       </c>
       <c r="I1357" t="n">
         <v>43.39</v>
       </c>
       <c r="J1357" t="n">
-        <v>-1845</v>
+        <v>-1846</v>
       </c>
       <c r="K1357" t="n">
-        <v>12124.47</v>
+        <v>11970.07</v>
       </c>
       <c r="L1357" t="n">
-        <v>2994</v>
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>2022-12-13</t>
+        </is>
+      </c>
+      <c r="B1358" t="n">
+        <v>62580.5</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>-4460</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>56975</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>52515</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>115095.5</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>72165</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>190280.5</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>-1832</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>12433.59</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>3020</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1358"/>
+  <dimension ref="A1:L1361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -45401,6 +45401,126 @@
         <v>3020</v>
       </c>
     </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>2022-12-14</t>
+        </is>
+      </c>
+      <c r="B1359" t="n">
+        <v>62580.5</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>-4446</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>56558</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>52112</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>114692.5</v>
+      </c>
+      <c r="G1359" t="n">
+        <v>72212</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>189930.5</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>-1818</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>12071.73</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>2022-12-15</t>
+        </is>
+      </c>
+      <c r="B1360" t="n">
+        <v>62580.5</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>-4444</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>55327</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>50883</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>113463.5</v>
+      </c>
+      <c r="G1360" t="n">
+        <v>71915</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>188334.5</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>-1838</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>12219.83</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>2022-12-16</t>
+        </is>
+      </c>
+      <c r="B1361" t="n">
+        <v>62580.5</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>-4458</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>55160</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>50702</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>113282.5</v>
+      </c>
+      <c r="G1361" t="n">
+        <v>71881</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>188262.5</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>-1639</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>12151.83</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>3099</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1361"/>
+  <dimension ref="A1:L1362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -45521,6 +45521,46 @@
         <v>3099</v>
       </c>
     </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>2022-12-21</t>
+        </is>
+      </c>
+      <c r="B1362" t="n">
+        <v>62580.5</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>-4543</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>54098</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>49555</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>112135.5</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>71685</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>186875.5</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>-1655</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>12117.04</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>3055</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1362"/>
+  <dimension ref="A1:L1363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -45561,6 +45561,46 @@
         <v>3055</v>
       </c>
     </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>2022-12-22</t>
+        </is>
+      </c>
+      <c r="B1363" t="n">
+        <v>62580.5</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>-4518</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>54758</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>50240</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>112820.5</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>71797</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>187683.5</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>-1657</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>12036.56</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>3066</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1363"/>
+  <dimension ref="A1:L1365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -45601,6 +45601,86 @@
         <v>3066</v>
       </c>
     </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>2022-12-23</t>
+        </is>
+      </c>
+      <c r="B1364" t="n">
+        <v>62580.5</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>-4506</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>53651</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>49145</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>111725.5</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>71649</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>186408.5</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>-1656</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>12020.05</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>2022-12-24</t>
+        </is>
+      </c>
+      <c r="B1365" t="n">
+        <v>62580.5</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>-4506</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>53323</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>48817</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>111397.5</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>71669</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>186091.5</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>-1658</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>11712.05</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>3025</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1365"/>
+  <dimension ref="A1:L1368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -45681,6 +45681,126 @@
         <v>3025</v>
       </c>
     </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>2022-12-25</t>
+        </is>
+      </c>
+      <c r="B1366" t="n">
+        <v>62580.5</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>-4506</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>53339</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>48833</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>111413.5</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>71669</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>186107.5</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>-1658</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>11728.28</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>2022-12-26</t>
+        </is>
+      </c>
+      <c r="B1367" t="n">
+        <v>62580.5</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>-4506</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>53921</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>49415</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>111995.5</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>71669</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>186689.5</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>-1655</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>12194.38</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>2022-12-30</t>
+        </is>
+      </c>
+      <c r="B1368" t="n">
+        <v>62580.5</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>-4442</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>52724</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>48282</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>110862.5</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>71607</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>185464.5</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>-1668</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>11873.16</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>2995</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1368"/>
+  <dimension ref="A1:L1369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1240" activePane="bottomRight" state="frozenSplit"/>
@@ -45801,6 +45801,46 @@
         <v>2995</v>
       </c>
     </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>2022-12-31</t>
+        </is>
+      </c>
+      <c r="B1369" t="n">
+        <v>62580.5</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>-4442</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>53034</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>48592</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>111172.5</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>71519</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>185446.5</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>-1654</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>11847.88</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>2755</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1373"/>
+  <dimension ref="A1:L1374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
@@ -49052,6 +49052,46 @@
         <v>2785</v>
       </c>
     </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>2023-01-08</t>
+        </is>
+      </c>
+      <c r="B1374" t="n">
+        <v>62656.5</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>-4378</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>53689</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>49311</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>111967.5</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>71854</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>186606.5</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>-1635</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>12507.67</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>2785</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1374"/>
+  <dimension ref="A1:L1378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
@@ -49092,6 +49092,166 @@
         <v>2824</v>
       </c>
     </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>2023-01-13</t>
+        </is>
+      </c>
+      <c r="B1375" t="n">
+        <v>62656.5</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>-4279</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>54852</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>50573</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>113229.5</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>72102</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>188171.5</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>-1570</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>12109.21</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>2023-01-14</t>
+        </is>
+      </c>
+      <c r="B1376" t="n">
+        <v>62656.5</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>-4279</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>55129</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>50850</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>113506.5</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>72181</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>188552.5</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>-1528</v>
+      </c>
+      <c r="K1376" t="n">
+        <v>12148.81</v>
+      </c>
+      <c r="L1376" t="n">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>2023-01-24</t>
+        </is>
+      </c>
+      <c r="B1377" t="n">
+        <v>62656.5</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>-4247</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>56195</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>51948</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>114604.5</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>72263</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>189774.5</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>-1477</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>12006.86</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>2023-01-25</t>
+        </is>
+      </c>
+      <c r="B1378" t="n">
+        <v>62656.5</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>-4207</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>55987</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>51780</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>114436.5</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>72262</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>189592.5</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>-1490</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>11847.82</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>2894</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1378"/>
+  <dimension ref="A1:L1380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
@@ -49252,6 +49252,86 @@
         <v>2894</v>
       </c>
     </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="B1379" t="n">
+        <v>62656.5</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>-4132</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>56051</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>51919</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>114575.5</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>72346</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>189845.5</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>-1473</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>12085.02</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="B1380" t="n">
+        <v>62656.5</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>-4088</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>57094</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>53006</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>115662.5</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>72420</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>191018.5</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>-1475</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>12242.02</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>2936</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1380"/>
+  <dimension ref="A1:L1382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
@@ -49305,31 +49305,111 @@
         <v>-4088</v>
       </c>
       <c r="D1380" t="n">
-        <v>57094</v>
+        <v>57085</v>
       </c>
       <c r="E1380" t="n">
-        <v>53006</v>
+        <v>52997</v>
       </c>
       <c r="F1380" t="n">
-        <v>115662.5</v>
+        <v>115653.5</v>
       </c>
       <c r="G1380" t="n">
-        <v>72420</v>
+        <v>72419</v>
       </c>
       <c r="H1380" t="n">
-        <v>191018.5</v>
+        <v>191008.5</v>
       </c>
       <c r="I1380" t="n">
         <v>58.17</v>
       </c>
       <c r="J1380" t="n">
-        <v>-1475</v>
+        <v>-1476</v>
       </c>
       <c r="K1380" t="n">
         <v>12242.02</v>
       </c>
       <c r="L1380" t="n">
         <v>2936</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>2023-01-31</t>
+        </is>
+      </c>
+      <c r="B1381" t="n">
+        <v>62656.5</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>-4067</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>57073</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>53006</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>115662.5</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>72385</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>190970.5</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>-1478</v>
+      </c>
+      <c r="K1381" t="n">
+        <v>12426.18</v>
+      </c>
+      <c r="L1381" t="n">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B1382" t="n">
+        <v>62656.5</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>-3968</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>59573</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>55605</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>118261.5</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>69248</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>190744.5</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>-2717</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>12484.14</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>3235</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1382"/>
+  <dimension ref="A1:L1391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
@@ -49412,6 +49412,366 @@
         <v>3235</v>
       </c>
     </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>2023-02-05</t>
+        </is>
+      </c>
+      <c r="B1383" t="n">
+        <v>62732.5</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>-3968</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>59651</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>55683</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>118415.5</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>69248</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>190897.5</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>-2720</v>
+      </c>
+      <c r="K1383" t="n">
+        <v>12565.34</v>
+      </c>
+      <c r="L1383" t="n">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>2023-02-11</t>
+        </is>
+      </c>
+      <c r="B1384" t="n">
+        <v>62732.5</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>-3901</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>58573</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>54672</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>117404.5</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>69107</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>189659.5</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>-2764</v>
+      </c>
+      <c r="K1384" t="n">
+        <v>12463.83</v>
+      </c>
+      <c r="L1384" t="n">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>2023-02-12</t>
+        </is>
+      </c>
+      <c r="B1385" t="n">
+        <v>62732.5</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>-3901</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>58592</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>54691</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>117423.5</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>69107</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>189679.5</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>-2760</v>
+      </c>
+      <c r="K1385" t="n">
+        <v>12479.34</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
+      </c>
+      <c r="B1386" t="n">
+        <v>62732.5</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>-3893</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>58540</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>54647</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>117379.5</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>69211</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>189789.5</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>-2695</v>
+      </c>
+      <c r="K1386" t="n">
+        <v>12520.3</v>
+      </c>
+      <c r="L1386" t="n">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>2023-02-18</t>
+        </is>
+      </c>
+      <c r="B1387" t="n">
+        <v>62732.5</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>-3893</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>58612</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>54719</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>117451.5</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>69197</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>189835.5</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>-2687</v>
+      </c>
+      <c r="K1387" t="n">
+        <v>12520.3</v>
+      </c>
+      <c r="L1387" t="n">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>2023-02-19</t>
+        </is>
+      </c>
+      <c r="B1388" t="n">
+        <v>62732.5</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>-3893</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>58605</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>54712</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>117444.5</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>69197</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>189828.5</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>-2685</v>
+      </c>
+      <c r="K1388" t="n">
+        <v>12518.14</v>
+      </c>
+      <c r="L1388" t="n">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>2023-02-21</t>
+        </is>
+      </c>
+      <c r="B1389" t="n">
+        <v>62732.5</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>-3941</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>57658</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>53717</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>116449.5</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>69108</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>188715.5</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>-2690</v>
+      </c>
+      <c r="K1389" t="n">
+        <v>12182.16</v>
+      </c>
+      <c r="L1389" t="n">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="B1390" t="n">
+        <v>62732.5</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>-3916</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>57590</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>53674</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>116406.5</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>69091</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>188646.5</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>-2708</v>
+      </c>
+      <c r="K1390" t="n">
+        <v>12048.18</v>
+      </c>
+      <c r="L1390" t="n">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="B1391" t="n">
+        <v>62732.5</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>-3923</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>57646</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>53723</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>116455.5</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>69088</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>188693.5</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>-2218</v>
+      </c>
+      <c r="K1391" t="n">
+        <v>12063.53</v>
+      </c>
+      <c r="L1391" t="n">
+        <v>3150</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1391"/>
+  <dimension ref="A1:L1399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
@@ -49745,31 +49745,351 @@
         <v>-3923</v>
       </c>
       <c r="D1391" t="n">
-        <v>57646</v>
+        <v>57681</v>
       </c>
       <c r="E1391" t="n">
-        <v>53723</v>
+        <v>53758</v>
       </c>
       <c r="F1391" t="n">
-        <v>116455.5</v>
+        <v>116490.5</v>
       </c>
       <c r="G1391" t="n">
         <v>69088</v>
       </c>
       <c r="H1391" t="n">
-        <v>188693.5</v>
+        <v>188911.5</v>
       </c>
       <c r="I1391" t="n">
         <v>58.17</v>
       </c>
       <c r="J1391" t="n">
-        <v>-2218</v>
+        <v>-2219</v>
       </c>
       <c r="K1391" t="n">
         <v>12063.53</v>
       </c>
       <c r="L1391" t="n">
-        <v>3150</v>
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>2023-02-25</t>
+        </is>
+      </c>
+      <c r="B1392" t="n">
+        <v>62732.5</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>-3923</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>57698</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>53775</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>116507.5</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>69041</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>188872.5</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>-2220</v>
+      </c>
+      <c r="K1392" t="n">
+        <v>12063.53</v>
+      </c>
+      <c r="L1392" t="n">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>2023-03-04</t>
+        </is>
+      </c>
+      <c r="B1393" t="n">
+        <v>62732.5</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>-3907</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>58278</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>54371</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>117103.5</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>69219</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>189711.5</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>-2240</v>
+      </c>
+      <c r="K1393" t="n">
+        <v>11886.54</v>
+      </c>
+      <c r="L1393" t="n">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>2023-03-07</t>
+        </is>
+      </c>
+      <c r="B1394" t="n">
+        <v>62808.5</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>-3867</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>58158</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>54291</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>117099.5</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>69218</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>189712.5</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>-2238</v>
+      </c>
+      <c r="K1394" t="n">
+        <v>11531</v>
+      </c>
+      <c r="L1394" t="n">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>2023-03-11</t>
+        </is>
+      </c>
+      <c r="B1395" t="n">
+        <v>62808.5</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>-3883</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>56491</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>52608</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>115416.5</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>68916</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>187618.5</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1395" t="n">
+        <v>-2289</v>
+      </c>
+      <c r="K1395" t="n">
+        <v>11277.71</v>
+      </c>
+      <c r="L1395" t="n">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>2023-03-12</t>
+        </is>
+      </c>
+      <c r="B1396" t="n">
+        <v>62808.5</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>-3883</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>56533</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>52650</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>115458.5</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>68916</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>187663.5</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1396" t="n">
+        <v>-2279</v>
+      </c>
+      <c r="K1396" t="n">
+        <v>11309.74</v>
+      </c>
+      <c r="L1396" t="n">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="B1397" t="n">
+        <v>62808.5</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>-3898</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>58801</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>54903</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>117711.5</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>69118</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>190276.5</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1397" t="n">
+        <v>-2159</v>
+      </c>
+      <c r="K1397" t="n">
+        <v>10642.45</v>
+      </c>
+      <c r="L1397" t="n">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>2023-03-18</t>
+        </is>
+      </c>
+      <c r="B1398" t="n">
+        <v>62808.5</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>-3898</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>58561</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>54663</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>117471.5</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>69071</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>189982.5</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1398" t="n">
+        <v>-2132</v>
+      </c>
+      <c r="K1398" t="n">
+        <v>10514.25</v>
+      </c>
+      <c r="L1398" t="n">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="inlineStr">
+        <is>
+          <t>2023-03-25</t>
+        </is>
+      </c>
+      <c r="B1399" t="n">
+        <v>62808.5</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>-3929</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>59022</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>55093</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>117901.5</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>69135</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>190487.5</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1399" t="n">
+        <v>-2146</v>
+      </c>
+      <c r="K1399" t="n">
+        <v>10370.84</v>
+      </c>
+      <c r="L1399" t="n">
+        <v>3451</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1399"/>
+  <dimension ref="A1:L1401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
@@ -50092,6 +50092,86 @@
         <v>3451</v>
       </c>
     </row>
+    <row r="1400">
+      <c r="A1400" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B1400" t="n">
+        <v>62808.5</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>-4101</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>59575</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>55474</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>118282.5</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>69236</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>190993.5</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>58.17</v>
+      </c>
+      <c r="J1400" t="n">
+        <v>-2126</v>
+      </c>
+      <c r="K1400" t="n">
+        <v>10325.92</v>
+      </c>
+      <c r="L1400" t="n">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="inlineStr">
+        <is>
+          <t>2023-04-01</t>
+        </is>
+      </c>
+      <c r="B1401" t="n">
+        <v>62808.5</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>-4101</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>60032</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>55931</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>118739.5</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>69236</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>191450.5</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1401" t="n">
+        <v>-2127</v>
+      </c>
+      <c r="K1401" t="n">
+        <v>10393.78</v>
+      </c>
+      <c r="L1401" t="n">
+        <v>3475</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1401"/>
+  <dimension ref="A1:L1402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
@@ -50172,6 +50172,46 @@
         <v>3475</v>
       </c>
     </row>
+    <row r="1402">
+      <c r="A1402" t="inlineStr">
+        <is>
+          <t>2023-04-02</t>
+        </is>
+      </c>
+      <c r="B1402" t="n">
+        <v>62808.5</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>-4101</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>60412</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>56311</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>119119.5</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>68816</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>191597.5</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1402" t="n">
+        <v>-1770</v>
+      </c>
+      <c r="K1402" t="n">
+        <v>10416.88</v>
+      </c>
+      <c r="L1402" t="n">
+        <v>3662</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1402"/>
+  <dimension ref="A1:L1406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
@@ -50212,6 +50212,166 @@
         <v>3662</v>
       </c>
     </row>
+    <row r="1403">
+      <c r="A1403" t="inlineStr">
+        <is>
+          <t>2023-04-07</t>
+        </is>
+      </c>
+      <c r="B1403" t="n">
+        <v>62885.5</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>-4090</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>59415</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>55325</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>118210.5</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>68826</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>190745.5</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1403" t="n">
+        <v>-1778</v>
+      </c>
+      <c r="K1403" t="n">
+        <v>10439.58</v>
+      </c>
+      <c r="L1403" t="n">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="inlineStr">
+        <is>
+          <t>2023-04-08</t>
+        </is>
+      </c>
+      <c r="B1404" t="n">
+        <v>62885.5</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>-4090</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>59199</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>55109</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>117994.5</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>68826</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>190529.5</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1404" t="n">
+        <v>-1780</v>
+      </c>
+      <c r="K1404" t="n">
+        <v>10481.37</v>
+      </c>
+      <c r="L1404" t="n">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>2023-04-10</t>
+        </is>
+      </c>
+      <c r="B1405" t="n">
+        <v>62885.5</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>-4090</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>59210</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>55120</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>118005.5</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>68826</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>190540.5</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1405" t="n">
+        <v>-1771</v>
+      </c>
+      <c r="K1405" t="n">
+        <v>10198.22</v>
+      </c>
+      <c r="L1405" t="n">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" t="inlineStr">
+        <is>
+          <t>2023-04-15</t>
+        </is>
+      </c>
+      <c r="B1406" t="n">
+        <v>62885.5</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>-4097</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>59094</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>54997</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>117882.5</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>68884</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>190705.5</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1406" t="n">
+        <v>-1560</v>
+      </c>
+      <c r="K1406" t="n">
+        <v>10540.71</v>
+      </c>
+      <c r="L1406" t="n">
+        <v>3939</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1406"/>
+  <dimension ref="A1:L1419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
@@ -50372,6 +50372,526 @@
         <v>3939</v>
       </c>
     </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>2023-04-16</t>
+        </is>
+      </c>
+      <c r="B1407" t="n">
+        <v>62885.5</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>-4097</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>59175</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>55078</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>117963.5</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>68884</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>190787.5</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1407" t="n">
+        <v>-1561</v>
+      </c>
+      <c r="K1407" t="n">
+        <v>10623.35</v>
+      </c>
+      <c r="L1407" t="n">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>2023-04-29</t>
+        </is>
+      </c>
+      <c r="B1408" t="n">
+        <v>62885.5</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>-4082</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>59286</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>55204</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>118089.5</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>69014</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>191056.5</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1408" t="n">
+        <v>-1598</v>
+      </c>
+      <c r="K1408" t="n">
+        <v>10766.07</v>
+      </c>
+      <c r="L1408" t="n">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>2023-04-30</t>
+        </is>
+      </c>
+      <c r="B1409" t="n">
+        <v>62885.5</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>-4082</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>59285</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>55203</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>118088.5</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>69014</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>191055.5</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1409" t="n">
+        <v>-1599</v>
+      </c>
+      <c r="K1409" t="n">
+        <v>10766.07</v>
+      </c>
+      <c r="L1409" t="n">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>2023-05-04</t>
+        </is>
+      </c>
+      <c r="B1410" t="n">
+        <v>62885.5</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>-4145</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>59188</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>55043</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>117928.5</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>64842</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>186687.5</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1410" t="n">
+        <v>-1603</v>
+      </c>
+      <c r="K1410" t="n">
+        <v>10828.68</v>
+      </c>
+      <c r="L1410" t="n">
+        <v>3917</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>2023-05-05</t>
+        </is>
+      </c>
+      <c r="B1411" t="n">
+        <v>62962.5</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>-4149</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>60545</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>56396</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>119358.5</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>64906</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>188226.5</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1411" t="n">
+        <v>-1587</v>
+      </c>
+      <c r="K1411" t="n">
+        <v>11340.59</v>
+      </c>
+      <c r="L1411" t="n">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>2023-05-06</t>
+        </is>
+      </c>
+      <c r="B1412" t="n">
+        <v>62962.5</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>-4149</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>59912</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>55763</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>118725.5</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>64896</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>187571.5</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1412" t="n">
+        <v>-1605</v>
+      </c>
+      <c r="K1412" t="n">
+        <v>11201.74</v>
+      </c>
+      <c r="L1412" t="n">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>2023-05-12</t>
+        </is>
+      </c>
+      <c r="B1413" t="n">
+        <v>62962.5</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>-4168</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>61975</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>57807</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>120769.5</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>69080</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>193901.5</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1413" t="n">
+        <v>-1645</v>
+      </c>
+      <c r="K1413" t="n">
+        <v>11455.01</v>
+      </c>
+      <c r="L1413" t="n">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>2023-05-13</t>
+        </is>
+      </c>
+      <c r="B1414" t="n">
+        <v>62962.5</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>-4168</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>61457</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>57289</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>120251.5</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>69052</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>193340.5</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1414" t="n">
+        <v>-1637</v>
+      </c>
+      <c r="K1414" t="n">
+        <v>11078.01</v>
+      </c>
+      <c r="L1414" t="n">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="B1415" t="n">
+        <v>62962.5</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>-4197</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>62998</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>58801</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>121763.5</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>69052</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>194868.5</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1415" t="n">
+        <v>-1628</v>
+      </c>
+      <c r="K1415" t="n">
+        <v>11542.04</v>
+      </c>
+      <c r="L1415" t="n">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B1416" t="n">
+        <v>62962.5</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>-4219</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>63921</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>59702</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>122664.5</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>69278</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>196092.5</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1416" t="n">
+        <v>-1628</v>
+      </c>
+      <c r="K1416" t="n">
+        <v>11398.46</v>
+      </c>
+      <c r="L1416" t="n">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>2023-05-21</t>
+        </is>
+      </c>
+      <c r="B1417" t="n">
+        <v>62962.5</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>-4219</v>
+      </c>
+      <c r="D1417" t="n">
+        <v>63659</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>59440</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>122402.5</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>69278</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>195830.5</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1417" t="n">
+        <v>-1625</v>
+      </c>
+      <c r="K1417" t="n">
+        <v>11159.8</v>
+      </c>
+      <c r="L1417" t="n">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B1418" t="n">
+        <v>66656</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>-4271</v>
+      </c>
+      <c r="D1418" t="n">
+        <v>65209</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>60938</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>127594</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>72945</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>204725</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1418" t="n">
+        <v>-1620</v>
+      </c>
+      <c r="K1418" t="n">
+        <v>10481.57</v>
+      </c>
+      <c r="L1418" t="n">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>2023-05-27</t>
+        </is>
+      </c>
+      <c r="B1419" t="n">
+        <v>66656</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>-4271</v>
+      </c>
+      <c r="D1419" t="n">
+        <v>65470</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>61199</v>
+      </c>
+      <c r="F1419" t="n">
+        <v>127855</v>
+      </c>
+      <c r="G1419" t="n">
+        <v>73079</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>205306</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1419" t="n">
+        <v>-1329</v>
+      </c>
+      <c r="K1419" t="n">
+        <v>10398.83</v>
+      </c>
+      <c r="L1419" t="n">
+        <v>4372</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1419"/>
+  <dimension ref="A1:L1421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
@@ -50892,6 +50892,86 @@
         <v>4372</v>
       </c>
     </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>2023-05-31</t>
+        </is>
+      </c>
+      <c r="B1420" t="n">
+        <v>66656</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>-4289</v>
+      </c>
+      <c r="D1420" t="n">
+        <v>65690</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>61401</v>
+      </c>
+      <c r="F1420" t="n">
+        <v>128057</v>
+      </c>
+      <c r="G1420" t="n">
+        <v>73215</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>205768</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1420" t="n">
+        <v>-916</v>
+      </c>
+      <c r="K1420" t="n">
+        <v>10271.33</v>
+      </c>
+      <c r="L1420" t="n">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>2023-06-02</t>
+        </is>
+      </c>
+      <c r="B1421" t="n">
+        <v>66656</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>-4286</v>
+      </c>
+      <c r="D1421" t="n">
+        <v>66269</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>61983</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>128639</v>
+      </c>
+      <c r="G1421" t="n">
+        <v>73299</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>206439</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1421" t="n">
+        <v>-919</v>
+      </c>
+      <c r="K1421" t="n">
+        <v>10505.5</v>
+      </c>
+      <c r="L1421" t="n">
+        <v>4501</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1421"/>
+  <dimension ref="A1:L1422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
@@ -50972,6 +50972,46 @@
         <v>4501</v>
       </c>
     </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>2023-06-03</t>
+        </is>
+      </c>
+      <c r="B1422" t="n">
+        <v>66656</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>-4286</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>66124</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>61838</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>128494</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>73349</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>206376</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1422" t="n">
+        <v>-913</v>
+      </c>
+      <c r="K1422" t="n">
+        <v>10544.35</v>
+      </c>
+      <c r="L1422" t="n">
+        <v>4533</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1422"/>
+  <dimension ref="A1:L1424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
@@ -51012,6 +51012,86 @@
         <v>4533</v>
       </c>
     </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>2023-06-09</t>
+        </is>
+      </c>
+      <c r="B1423" t="n">
+        <v>66733</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>-4302</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>67308</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>63006</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>129739</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>73297</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>207663</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1423" t="n">
+        <v>-1501</v>
+      </c>
+      <c r="K1423" t="n">
+        <v>10632.48</v>
+      </c>
+      <c r="L1423" t="n">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>2023-06-18</t>
+        </is>
+      </c>
+      <c r="B1424" t="n">
+        <v>70214</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>-4250</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>67104</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>62854</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>133068</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>77031</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>214766</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>-1416</v>
+      </c>
+      <c r="K1424" t="n">
+        <v>10531.83</v>
+      </c>
+      <c r="L1424" t="n">
+        <v>4667</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1424"/>
+  <dimension ref="A1:L1425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
@@ -51092,6 +51092,46 @@
         <v>4667</v>
       </c>
     </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>2023-06-22</t>
+        </is>
+      </c>
+      <c r="B1425" t="n">
+        <v>70214</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>-4247</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>65614</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>61367</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>131581</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>76766</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>212936</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>-1349</v>
+      </c>
+      <c r="K1425" t="n">
+        <v>10275.99</v>
+      </c>
+      <c r="L1425" t="n">
+        <v>4589</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1425"/>
+  <dimension ref="A1:L1430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
@@ -51099,37 +51099,237 @@
         </is>
       </c>
       <c r="B1425" t="n">
-        <v>70214</v>
+        <v>71628</v>
       </c>
       <c r="C1425" t="n">
         <v>-4247</v>
       </c>
       <c r="D1425" t="n">
-        <v>65614</v>
+        <v>65627</v>
       </c>
       <c r="E1425" t="n">
-        <v>61367</v>
+        <v>61380</v>
       </c>
       <c r="F1425" t="n">
-        <v>131581</v>
+        <v>133008</v>
       </c>
       <c r="G1425" t="n">
-        <v>76766</v>
+        <v>78180</v>
       </c>
       <c r="H1425" t="n">
-        <v>212936</v>
+        <v>215780</v>
       </c>
       <c r="I1425" t="n">
         <v>72.95</v>
       </c>
       <c r="J1425" t="n">
-        <v>-1349</v>
+        <v>-1345</v>
       </c>
       <c r="K1425" t="n">
         <v>10275.99</v>
       </c>
       <c r="L1425" t="n">
-        <v>4589</v>
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>2023-06-23</t>
+        </is>
+      </c>
+      <c r="B1426" t="n">
+        <v>71628</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>-4252</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>66683</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>62431</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>134059</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>78305</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>217036</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1426" t="n">
+        <v>-1342</v>
+      </c>
+      <c r="K1426" t="n">
+        <v>10309.29</v>
+      </c>
+      <c r="L1426" t="n">
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>2023-06-25</t>
+        </is>
+      </c>
+      <c r="B1427" t="n">
+        <v>71628</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>-4252</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>66148</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>61896</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>133524</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>78278</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>216450</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1427" t="n">
+        <v>-1330</v>
+      </c>
+      <c r="K1427" t="n">
+        <v>10361.24</v>
+      </c>
+      <c r="L1427" t="n">
+        <v>4648</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>2023-07-02</t>
+        </is>
+      </c>
+      <c r="B1428" t="n">
+        <v>71628</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>-4252</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>67003</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>62751</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>134379</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>78450</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>217538</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1428" t="n">
+        <v>-1333</v>
+      </c>
+      <c r="K1428" t="n">
+        <v>9955.52</v>
+      </c>
+      <c r="L1428" t="n">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>2023-07-04</t>
+        </is>
+      </c>
+      <c r="B1429" t="n">
+        <v>71628</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>-4232</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>68038</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>63806</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>135434</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>78454</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>218603</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1429" t="n">
+        <v>-1319</v>
+      </c>
+      <c r="K1429" t="n">
+        <v>10590.19</v>
+      </c>
+      <c r="L1429" t="n">
+        <v>4715</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>2023-07-06</t>
+        </is>
+      </c>
+      <c r="B1430" t="n">
+        <v>71706</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>-4211</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>67838</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>63627</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>135333</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>78447</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>218422</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1430" t="n">
+        <v>-936</v>
+      </c>
+      <c r="K1430" t="n">
+        <v>10434.35</v>
+      </c>
+      <c r="L1430" t="n">
+        <v>4642</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1430"/>
+  <dimension ref="A1:L1431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
@@ -51305,31 +51305,71 @@
         <v>-4211</v>
       </c>
       <c r="D1430" t="n">
-        <v>67838</v>
+        <v>67841</v>
       </c>
       <c r="E1430" t="n">
-        <v>63627</v>
+        <v>63630</v>
       </c>
       <c r="F1430" t="n">
-        <v>135333</v>
+        <v>135336</v>
       </c>
       <c r="G1430" t="n">
         <v>78447</v>
       </c>
       <c r="H1430" t="n">
-        <v>218422</v>
+        <v>218425</v>
       </c>
       <c r="I1430" t="n">
         <v>72.95</v>
       </c>
       <c r="J1430" t="n">
-        <v>-936</v>
+        <v>-937</v>
       </c>
       <c r="K1430" t="n">
         <v>10434.35</v>
       </c>
       <c r="L1430" t="n">
         <v>4642</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>2023-07-11</t>
+        </is>
+      </c>
+      <c r="B1431" t="n">
+        <v>71706</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>-4222</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>66754</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>62532</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>134238</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>72707</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>208065</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1431" t="n">
+        <v>-641</v>
+      </c>
+      <c r="K1431" t="n">
+        <v>10076.81</v>
+      </c>
+      <c r="L1431" t="n">
+        <v>1120</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1435"/>
+  <dimension ref="A1:L1437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1392" activePane="bottomRight" state="frozenSplit"/>
@@ -51499,7 +51499,7 @@
         </is>
       </c>
       <c r="B1435" t="n">
-        <v>71706</v>
+        <v>73206</v>
       </c>
       <c r="C1435" t="n">
         <v>-4208</v>
@@ -51511,13 +51511,13 @@
         <v>63138</v>
       </c>
       <c r="F1435" t="n">
-        <v>134844</v>
+        <v>136344</v>
       </c>
       <c r="G1435" t="n">
-        <v>74406</v>
+        <v>75906</v>
       </c>
       <c r="H1435" t="n">
-        <v>214264</v>
+        <v>217264</v>
       </c>
       <c r="I1435" t="n">
         <v>72.95</v>
@@ -51530,6 +51530,86 @@
       </c>
       <c r="L1435" t="n">
         <v>5014</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="B1436" t="n">
+        <v>73206</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>-4179</v>
+      </c>
+      <c r="D1436" t="n">
+        <v>68234</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>64055</v>
+      </c>
+      <c r="F1436" t="n">
+        <v>137261</v>
+      </c>
+      <c r="G1436" t="n">
+        <v>76005</v>
+      </c>
+      <c r="H1436" t="n">
+        <v>218311</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1436" t="n">
+        <v>-384</v>
+      </c>
+      <c r="K1436" t="n">
+        <v>9920.59</v>
+      </c>
+      <c r="L1436" t="n">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="inlineStr">
+        <is>
+          <t>2023-07-23</t>
+        </is>
+      </c>
+      <c r="B1437" t="n">
+        <v>73206</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>-4189</v>
+      </c>
+      <c r="D1437" t="n">
+        <v>66993</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>62804</v>
+      </c>
+      <c r="F1437" t="n">
+        <v>136010</v>
+      </c>
+      <c r="G1437" t="n">
+        <v>79972</v>
+      </c>
+      <c r="H1437" t="n">
+        <v>220972</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1437" t="n">
+        <v>-383</v>
+      </c>
+      <c r="K1437" t="n">
+        <v>10025.48</v>
+      </c>
+      <c r="L1437" t="n">
+        <v>4990</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -51585,31 +51585,31 @@
         <v>-4189</v>
       </c>
       <c r="D1437" t="n">
-        <v>66993</v>
+        <v>66994</v>
       </c>
       <c r="E1437" t="n">
-        <v>62804</v>
+        <v>62805</v>
       </c>
       <c r="F1437" t="n">
-        <v>136010</v>
+        <v>136011</v>
       </c>
       <c r="G1437" t="n">
         <v>79972</v>
       </c>
       <c r="H1437" t="n">
-        <v>220972</v>
+        <v>220974</v>
       </c>
       <c r="I1437" t="n">
         <v>72.95</v>
       </c>
       <c r="J1437" t="n">
-        <v>-383</v>
+        <v>-382</v>
       </c>
       <c r="K1437" t="n">
         <v>10025.48</v>
       </c>
       <c r="L1437" t="n">
-        <v>4990</v>
+        <v>4991</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16284" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12852" yWindow="960" windowWidth="30960" windowHeight="11748" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porfelli Info" sheetId="1" state="visible" r:id="rId1"/>
@@ -394,13 +394,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1437"/>
+  <dimension ref="A1:L1442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1392" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="I1424" sqref="I1424"/>
+      <selection pane="bottomRight" activeCell="L1016" sqref="L1016"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -509,7 +509,7 @@
         <v>24433</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -540,7 +540,7 @@
         <v>24724</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -571,7 +571,7 @@
         <v>25058</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -51585,31 +51585,231 @@
         <v>-4189</v>
       </c>
       <c r="D1437" t="n">
-        <v>66994</v>
+        <v>66995</v>
       </c>
       <c r="E1437" t="n">
-        <v>62805</v>
+        <v>62806</v>
       </c>
       <c r="F1437" t="n">
-        <v>136011</v>
+        <v>136012</v>
       </c>
       <c r="G1437" t="n">
         <v>79972</v>
       </c>
       <c r="H1437" t="n">
-        <v>220974</v>
+        <v>220975</v>
       </c>
       <c r="I1437" t="n">
         <v>72.95</v>
       </c>
       <c r="J1437" t="n">
-        <v>-382</v>
+        <v>-381</v>
       </c>
       <c r="K1437" t="n">
         <v>10025.48</v>
       </c>
       <c r="L1437" t="n">
         <v>4991</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+      <c r="B1438" t="n">
+        <v>73206</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>-4190</v>
+      </c>
+      <c r="D1438" t="n">
+        <v>67833</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>63643</v>
+      </c>
+      <c r="F1438" t="n">
+        <v>136849</v>
+      </c>
+      <c r="G1438" t="n">
+        <v>80016</v>
+      </c>
+      <c r="H1438" t="n">
+        <v>221880</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1438" t="n">
+        <v>-389</v>
+      </c>
+      <c r="K1438" t="n">
+        <v>9792.73</v>
+      </c>
+      <c r="L1438" t="n">
+        <v>5015</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="inlineStr">
+        <is>
+          <t>2023-07-28</t>
+        </is>
+      </c>
+      <c r="B1439" t="n">
+        <v>73206</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>-4214</v>
+      </c>
+      <c r="D1439" t="n">
+        <v>68482</v>
+      </c>
+      <c r="E1439" t="n">
+        <v>64268</v>
+      </c>
+      <c r="F1439" t="n">
+        <v>137474</v>
+      </c>
+      <c r="G1439" t="n">
+        <v>80366</v>
+      </c>
+      <c r="H1439" t="n">
+        <v>222908</v>
+      </c>
+      <c r="I1439" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1439" t="n">
+        <v>-285</v>
+      </c>
+      <c r="K1439" t="n">
+        <v>9046.52</v>
+      </c>
+      <c r="L1439" t="n">
+        <v>5068</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="inlineStr">
+        <is>
+          <t>2023-07-29</t>
+        </is>
+      </c>
+      <c r="B1440" t="n">
+        <v>73206</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>-4214</v>
+      </c>
+      <c r="D1440" t="n">
+        <v>68454</v>
+      </c>
+      <c r="E1440" t="n">
+        <v>64240</v>
+      </c>
+      <c r="F1440" t="n">
+        <v>137446</v>
+      </c>
+      <c r="G1440" t="n">
+        <v>80366</v>
+      </c>
+      <c r="H1440" t="n">
+        <v>222880</v>
+      </c>
+      <c r="I1440" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1440" t="n">
+        <v>-287</v>
+      </c>
+      <c r="K1440" t="n">
+        <v>9078.120000000001</v>
+      </c>
+      <c r="L1440" t="n">
+        <v>5068</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t>2023-07-30</t>
+        </is>
+      </c>
+      <c r="B1441" t="n">
+        <v>73206</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>-4214</v>
+      </c>
+      <c r="D1441" t="n">
+        <v>68371</v>
+      </c>
+      <c r="E1441" t="n">
+        <v>64157</v>
+      </c>
+      <c r="F1441" t="n">
+        <v>137363</v>
+      </c>
+      <c r="G1441" t="n">
+        <v>80366</v>
+      </c>
+      <c r="H1441" t="n">
+        <v>222797</v>
+      </c>
+      <c r="I1441" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1441" t="n">
+        <v>-285</v>
+      </c>
+      <c r="K1441" t="n">
+        <v>8993.280000000001</v>
+      </c>
+      <c r="L1441" t="n">
+        <v>5068</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" t="inlineStr">
+        <is>
+          <t>2023-08-04</t>
+        </is>
+      </c>
+      <c r="B1442" t="n">
+        <v>73206</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>-4235</v>
+      </c>
+      <c r="D1442" t="n">
+        <v>68463</v>
+      </c>
+      <c r="E1442" t="n">
+        <v>64228</v>
+      </c>
+      <c r="F1442" t="n">
+        <v>137434</v>
+      </c>
+      <c r="G1442" t="n">
+        <v>80040</v>
+      </c>
+      <c r="H1442" t="n">
+        <v>222546</v>
+      </c>
+      <c r="I1442" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1442" t="n">
+        <v>-290</v>
+      </c>
+      <c r="K1442" t="n">
+        <v>9461.09</v>
+      </c>
+      <c r="L1442" t="n">
+        <v>5072</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1442"/>
+  <dimension ref="A1:L1449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -51785,31 +51785,311 @@
         <v>-4235</v>
       </c>
       <c r="D1442" t="n">
-        <v>68463</v>
+        <v>68322</v>
       </c>
       <c r="E1442" t="n">
-        <v>64228</v>
+        <v>64087</v>
       </c>
       <c r="F1442" t="n">
-        <v>137434</v>
+        <v>137293</v>
       </c>
       <c r="G1442" t="n">
         <v>80040</v>
       </c>
       <c r="H1442" t="n">
-        <v>222546</v>
+        <v>222405</v>
       </c>
       <c r="I1442" t="n">
         <v>72.95</v>
       </c>
       <c r="J1442" t="n">
-        <v>-290</v>
+        <v>-291</v>
       </c>
       <c r="K1442" t="n">
         <v>9461.09</v>
       </c>
       <c r="L1442" t="n">
         <v>5072</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="B1443" t="n">
+        <v>77296.5</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>-4263</v>
+      </c>
+      <c r="D1443" t="n">
+        <v>67740</v>
+      </c>
+      <c r="E1443" t="n">
+        <v>63477</v>
+      </c>
+      <c r="F1443" t="n">
+        <v>140773.5</v>
+      </c>
+      <c r="G1443" t="n">
+        <v>84080</v>
+      </c>
+      <c r="H1443" t="n">
+        <v>229893.5</v>
+      </c>
+      <c r="I1443" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1443" t="n">
+        <v>-184</v>
+      </c>
+      <c r="K1443" t="n">
+        <v>9748.959999999999</v>
+      </c>
+      <c r="L1443" t="n">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="B1444" t="n">
+        <v>77296.5</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>-4255</v>
+      </c>
+      <c r="D1444" t="n">
+        <v>66971</v>
+      </c>
+      <c r="E1444" t="n">
+        <v>62716</v>
+      </c>
+      <c r="F1444" t="n">
+        <v>140012.5</v>
+      </c>
+      <c r="G1444" t="n">
+        <v>83994</v>
+      </c>
+      <c r="H1444" t="n">
+        <v>228992.5</v>
+      </c>
+      <c r="I1444" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1444" t="n">
+        <v>-185</v>
+      </c>
+      <c r="K1444" t="n">
+        <v>9743.42</v>
+      </c>
+      <c r="L1444" t="n">
+        <v>4986</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>2023-08-12</t>
+        </is>
+      </c>
+      <c r="B1445" t="n">
+        <v>77296.5</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>-4255</v>
+      </c>
+      <c r="D1445" t="n">
+        <v>66815</v>
+      </c>
+      <c r="E1445" t="n">
+        <v>62560</v>
+      </c>
+      <c r="F1445" t="n">
+        <v>139856.5</v>
+      </c>
+      <c r="G1445" t="n">
+        <v>83994</v>
+      </c>
+      <c r="H1445" t="n">
+        <v>228837.5</v>
+      </c>
+      <c r="I1445" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1445" t="n">
+        <v>-183</v>
+      </c>
+      <c r="K1445" t="n">
+        <v>9676.92</v>
+      </c>
+      <c r="L1445" t="n">
+        <v>4987</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="B1446" t="n">
+        <v>77296.5</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>-4255</v>
+      </c>
+      <c r="D1446" t="n">
+        <v>66698</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>62443</v>
+      </c>
+      <c r="F1446" t="n">
+        <v>139739.5</v>
+      </c>
+      <c r="G1446" t="n">
+        <v>83994</v>
+      </c>
+      <c r="H1446" t="n">
+        <v>228720.5</v>
+      </c>
+      <c r="I1446" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1446" t="n">
+        <v>-184</v>
+      </c>
+      <c r="K1446" t="n">
+        <v>9560.92</v>
+      </c>
+      <c r="L1446" t="n">
+        <v>4987</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>2023-08-16</t>
+        </is>
+      </c>
+      <c r="B1447" t="n">
+        <v>77296.5</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>-4314</v>
+      </c>
+      <c r="D1447" t="n">
+        <v>66427</v>
+      </c>
+      <c r="E1447" t="n">
+        <v>62113</v>
+      </c>
+      <c r="F1447" t="n">
+        <v>139409.5</v>
+      </c>
+      <c r="G1447" t="n">
+        <v>84016</v>
+      </c>
+      <c r="H1447" t="n">
+        <v>228444.5</v>
+      </c>
+      <c r="I1447" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1447" t="n">
+        <v>-187</v>
+      </c>
+      <c r="K1447" t="n">
+        <v>9513.620000000001</v>
+      </c>
+      <c r="L1447" t="n">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>2023-08-21</t>
+        </is>
+      </c>
+      <c r="B1448" t="n">
+        <v>78083.5</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>-4381</v>
+      </c>
+      <c r="D1448" t="n">
+        <v>65273</v>
+      </c>
+      <c r="E1448" t="n">
+        <v>60892</v>
+      </c>
+      <c r="F1448" t="n">
+        <v>138975.5</v>
+      </c>
+      <c r="G1448" t="n">
+        <v>84682</v>
+      </c>
+      <c r="H1448" t="n">
+        <v>228601.5</v>
+      </c>
+      <c r="I1448" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1448" t="n">
+        <v>-254</v>
+      </c>
+      <c r="K1448" t="n">
+        <v>9181.379999999999</v>
+      </c>
+      <c r="L1448" t="n">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="B1449" t="n">
+        <v>78083.5</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>-4430</v>
+      </c>
+      <c r="D1449" t="n">
+        <v>65827</v>
+      </c>
+      <c r="E1449" t="n">
+        <v>61397</v>
+      </c>
+      <c r="F1449" t="n">
+        <v>139480.5</v>
+      </c>
+      <c r="G1449" t="n">
+        <v>84744</v>
+      </c>
+      <c r="H1449" t="n">
+        <v>229224.5</v>
+      </c>
+      <c r="I1449" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1449" t="n">
+        <v>-253</v>
+      </c>
+      <c r="K1449" t="n">
+        <v>9295.48</v>
+      </c>
+      <c r="L1449" t="n">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1449"/>
+  <dimension ref="A1:L1450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -52092,6 +52092,46 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>2023-08-26</t>
+        </is>
+      </c>
+      <c r="B1450" t="n">
+        <v>78240</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>-4481</v>
+      </c>
+      <c r="D1450" t="n">
+        <v>65892</v>
+      </c>
+      <c r="E1450" t="n">
+        <v>61411</v>
+      </c>
+      <c r="F1450" t="n">
+        <v>139651</v>
+      </c>
+      <c r="G1450" t="n">
+        <v>84871</v>
+      </c>
+      <c r="H1450" t="n">
+        <v>229516</v>
+      </c>
+      <c r="I1450" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1450" t="n">
+        <v>-249</v>
+      </c>
+      <c r="K1450" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1450" t="n">
+        <v>4994</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1450"/>
+  <dimension ref="A1:L1455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -52117,7 +52117,7 @@
         <v>84871</v>
       </c>
       <c r="H1450" t="n">
-        <v>229516</v>
+        <v>229692</v>
       </c>
       <c r="I1450" t="n">
         <v>72.95</v>
@@ -52129,7 +52129,207 @@
         <v>9000</v>
       </c>
       <c r="L1450" t="n">
-        <v>4994</v>
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="B1451" t="n">
+        <v>78240</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>-4498</v>
+      </c>
+      <c r="D1451" t="n">
+        <v>66809</v>
+      </c>
+      <c r="E1451" t="n">
+        <v>62311</v>
+      </c>
+      <c r="F1451" t="n">
+        <v>140551</v>
+      </c>
+      <c r="G1451" t="n">
+        <v>84979</v>
+      </c>
+      <c r="H1451" t="n">
+        <v>230798</v>
+      </c>
+      <c r="I1451" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1451" t="n">
+        <v>-213</v>
+      </c>
+      <c r="K1451" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1451" t="n">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="B1452" t="n">
+        <v>78240</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>-4492</v>
+      </c>
+      <c r="D1452" t="n">
+        <v>67949</v>
+      </c>
+      <c r="E1452" t="n">
+        <v>63457</v>
+      </c>
+      <c r="F1452" t="n">
+        <v>141697</v>
+      </c>
+      <c r="G1452" t="n">
+        <v>85090</v>
+      </c>
+      <c r="H1452" t="n">
+        <v>232137</v>
+      </c>
+      <c r="I1452" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1452" t="n">
+        <v>-254</v>
+      </c>
+      <c r="K1452" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1452" t="n">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>2023-09-10</t>
+        </is>
+      </c>
+      <c r="B1453" t="n">
+        <v>78318</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>-4312</v>
+      </c>
+      <c r="D1453" t="n">
+        <v>67445</v>
+      </c>
+      <c r="E1453" t="n">
+        <v>63133</v>
+      </c>
+      <c r="F1453" t="n">
+        <v>141451</v>
+      </c>
+      <c r="G1453" t="n">
+        <v>85226</v>
+      </c>
+      <c r="H1453" t="n">
+        <v>232029</v>
+      </c>
+      <c r="I1453" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1453" t="n">
+        <v>-151</v>
+      </c>
+      <c r="K1453" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1453" t="n">
+        <v>5352</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B1454" t="n">
+        <v>78318</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>-4301</v>
+      </c>
+      <c r="D1454" t="n">
+        <v>68012</v>
+      </c>
+      <c r="E1454" t="n">
+        <v>63711</v>
+      </c>
+      <c r="F1454" t="n">
+        <v>142029</v>
+      </c>
+      <c r="G1454" t="n">
+        <v>85226</v>
+      </c>
+      <c r="H1454" t="n">
+        <v>232595</v>
+      </c>
+      <c r="I1454" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1454" t="n">
+        <v>-168</v>
+      </c>
+      <c r="K1454" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1454" t="n">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="B1455" t="n">
+        <v>78318</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>-4419</v>
+      </c>
+      <c r="D1455" t="n">
+        <v>67609</v>
+      </c>
+      <c r="E1455" t="n">
+        <v>63190</v>
+      </c>
+      <c r="F1455" t="n">
+        <v>141508</v>
+      </c>
+      <c r="G1455" t="n">
+        <v>85351</v>
+      </c>
+      <c r="H1455" t="n">
+        <v>232198</v>
+      </c>
+      <c r="I1455" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1455" t="n">
+        <v>-134</v>
+      </c>
+      <c r="K1455" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1455" t="n">
+        <v>5339</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1455"/>
+  <dimension ref="A1:L1456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -52332,6 +52332,46 @@
         <v>5339</v>
       </c>
     </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="B1456" t="n">
+        <v>78318</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>-4455</v>
+      </c>
+      <c r="D1456" t="n">
+        <v>67153</v>
+      </c>
+      <c r="E1456" t="n">
+        <v>62698</v>
+      </c>
+      <c r="F1456" t="n">
+        <v>141016</v>
+      </c>
+      <c r="G1456" t="n">
+        <v>85061</v>
+      </c>
+      <c r="H1456" t="n">
+        <v>231349</v>
+      </c>
+      <c r="I1456" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1456" t="n">
+        <v>-125</v>
+      </c>
+      <c r="K1456" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1456" t="n">
+        <v>5272</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -52339,37 +52339,37 @@
         </is>
       </c>
       <c r="B1456" t="n">
-        <v>78318</v>
+        <v>67942</v>
       </c>
       <c r="C1456" t="n">
-        <v>-4455</v>
+        <v>10545</v>
       </c>
       <c r="D1456" t="n">
-        <v>67153</v>
+        <v>67368</v>
       </c>
       <c r="E1456" t="n">
-        <v>62698</v>
+        <v>77913</v>
       </c>
       <c r="F1456" t="n">
-        <v>141016</v>
+        <v>145855</v>
       </c>
       <c r="G1456" t="n">
-        <v>85061</v>
+        <v>91872</v>
       </c>
       <c r="H1456" t="n">
-        <v>231349</v>
+        <v>243206</v>
       </c>
       <c r="I1456" t="n">
         <v>72.95</v>
       </c>
       <c r="J1456" t="n">
-        <v>-125</v>
+        <v>14876</v>
       </c>
       <c r="K1456" t="n">
         <v>9000</v>
       </c>
       <c r="L1456" t="n">
-        <v>5272</v>
+        <v>5479</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1456"/>
+  <dimension ref="A1:L1468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -52372,6 +52372,486 @@
         <v>5479</v>
       </c>
     </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="B1457" t="n">
+        <v>67942</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>10556</v>
+      </c>
+      <c r="D1457" t="n">
+        <v>66962</v>
+      </c>
+      <c r="E1457" t="n">
+        <v>77518</v>
+      </c>
+      <c r="F1457" t="n">
+        <v>145460</v>
+      </c>
+      <c r="G1457" t="n">
+        <v>91879</v>
+      </c>
+      <c r="H1457" t="n">
+        <v>242776</v>
+      </c>
+      <c r="I1457" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1457" t="n">
+        <v>14871</v>
+      </c>
+      <c r="K1457" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1457" t="n">
+        <v>5437</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="B1458" t="n">
+        <v>67942</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>10547</v>
+      </c>
+      <c r="D1458" t="n">
+        <v>65855</v>
+      </c>
+      <c r="E1458" t="n">
+        <v>76402</v>
+      </c>
+      <c r="F1458" t="n">
+        <v>144344</v>
+      </c>
+      <c r="G1458" t="n">
+        <v>91737</v>
+      </c>
+      <c r="H1458" t="n">
+        <v>241419</v>
+      </c>
+      <c r="I1458" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1458" t="n">
+        <v>14862</v>
+      </c>
+      <c r="K1458" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1458" t="n">
+        <v>5338</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="B1459" t="n">
+        <v>67942</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>10609</v>
+      </c>
+      <c r="D1459" t="n">
+        <v>65213</v>
+      </c>
+      <c r="E1459" t="n">
+        <v>75822</v>
+      </c>
+      <c r="F1459" t="n">
+        <v>143764</v>
+      </c>
+      <c r="G1459" t="n">
+        <v>91585</v>
+      </c>
+      <c r="H1459" t="n">
+        <v>240695</v>
+      </c>
+      <c r="I1459" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1459" t="n">
+        <v>14872</v>
+      </c>
+      <c r="K1459" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1459" t="n">
+        <v>5346</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>2023-10-06</t>
+        </is>
+      </c>
+      <c r="B1460" t="n">
+        <v>68021</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>10603</v>
+      </c>
+      <c r="D1460" t="n">
+        <v>67353</v>
+      </c>
+      <c r="E1460" t="n">
+        <v>77956</v>
+      </c>
+      <c r="F1460" t="n">
+        <v>145977</v>
+      </c>
+      <c r="G1460" t="n">
+        <v>91619</v>
+      </c>
+      <c r="H1460" t="n">
+        <v>242956</v>
+      </c>
+      <c r="I1460" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1460" t="n">
+        <v>14891</v>
+      </c>
+      <c r="K1460" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1460" t="n">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>2023-10-07</t>
+        </is>
+      </c>
+      <c r="B1461" t="n">
+        <v>68021</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>10603</v>
+      </c>
+      <c r="D1461" t="n">
+        <v>67396</v>
+      </c>
+      <c r="E1461" t="n">
+        <v>77999</v>
+      </c>
+      <c r="F1461" t="n">
+        <v>146020</v>
+      </c>
+      <c r="G1461" t="n">
+        <v>91619</v>
+      </c>
+      <c r="H1461" t="n">
+        <v>242999</v>
+      </c>
+      <c r="I1461" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1461" t="n">
+        <v>14893</v>
+      </c>
+      <c r="K1461" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1461" t="n">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>2023-10-12</t>
+        </is>
+      </c>
+      <c r="B1462" t="n">
+        <v>68021</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>10636</v>
+      </c>
+      <c r="D1462" t="n">
+        <v>68551</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>79187</v>
+      </c>
+      <c r="F1462" t="n">
+        <v>147208</v>
+      </c>
+      <c r="G1462" t="n">
+        <v>91834</v>
+      </c>
+      <c r="H1462" t="n">
+        <v>244580</v>
+      </c>
+      <c r="I1462" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1462" t="n">
+        <v>14863</v>
+      </c>
+      <c r="K1462" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1462" t="n">
+        <v>5538</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>2023-10-14</t>
+        </is>
+      </c>
+      <c r="B1463" t="n">
+        <v>68021</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>10647</v>
+      </c>
+      <c r="D1463" t="n">
+        <v>67521</v>
+      </c>
+      <c r="E1463" t="n">
+        <v>78168</v>
+      </c>
+      <c r="F1463" t="n">
+        <v>146189</v>
+      </c>
+      <c r="G1463" t="n">
+        <v>91751</v>
+      </c>
+      <c r="H1463" t="n">
+        <v>243418</v>
+      </c>
+      <c r="I1463" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1463" t="n">
+        <v>14870</v>
+      </c>
+      <c r="K1463" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1463" t="n">
+        <v>5478</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>2023-10-25</t>
+        </is>
+      </c>
+      <c r="B1464" t="n">
+        <v>68021</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>10630</v>
+      </c>
+      <c r="D1464" t="n">
+        <v>63996</v>
+      </c>
+      <c r="E1464" t="n">
+        <v>74626</v>
+      </c>
+      <c r="F1464" t="n">
+        <v>142647</v>
+      </c>
+      <c r="G1464" t="n">
+        <v>91319</v>
+      </c>
+      <c r="H1464" t="n">
+        <v>239297</v>
+      </c>
+      <c r="I1464" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1464" t="n">
+        <v>15021</v>
+      </c>
+      <c r="K1464" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1464" t="n">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>2023-10-26</t>
+        </is>
+      </c>
+      <c r="B1465" t="n">
+        <v>68021</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>10620</v>
+      </c>
+      <c r="D1465" t="n">
+        <v>62968</v>
+      </c>
+      <c r="E1465" t="n">
+        <v>73588</v>
+      </c>
+      <c r="F1465" t="n">
+        <v>141609</v>
+      </c>
+      <c r="G1465" t="n">
+        <v>91198</v>
+      </c>
+      <c r="H1465" t="n">
+        <v>238046</v>
+      </c>
+      <c r="I1465" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1465" t="n">
+        <v>15008</v>
+      </c>
+      <c r="K1465" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1465" t="n">
+        <v>5239</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="B1466" t="n">
+        <v>62855</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>10606</v>
+      </c>
+      <c r="D1466" t="n">
+        <v>69150</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>79756</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>142611</v>
+      </c>
+      <c r="G1466" t="n">
+        <v>86865</v>
+      </c>
+      <c r="H1466" t="n">
+        <v>234859</v>
+      </c>
+      <c r="I1466" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1466" t="n">
+        <v>13576</v>
+      </c>
+      <c r="K1466" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1466" t="n">
+        <v>5383</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="B1467" t="n">
+        <v>62855</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>10606</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>71097</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>81703</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>144558</v>
+      </c>
+      <c r="G1467" t="n">
+        <v>88865</v>
+      </c>
+      <c r="H1467" t="n">
+        <v>238808</v>
+      </c>
+      <c r="I1467" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1467" t="n">
+        <v>13583</v>
+      </c>
+      <c r="K1467" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1467" t="n">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>2023-11-11</t>
+        </is>
+      </c>
+      <c r="B1468" t="n">
+        <v>75685</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>-4372</v>
+      </c>
+      <c r="D1468" t="n">
+        <v>69205</v>
+      </c>
+      <c r="E1468" t="n">
+        <v>64833</v>
+      </c>
+      <c r="F1468" t="n">
+        <v>140518</v>
+      </c>
+      <c r="G1468" t="n">
+        <v>89271</v>
+      </c>
+      <c r="H1468" t="n">
+        <v>235231</v>
+      </c>
+      <c r="I1468" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1468" t="n">
+        <v>-1251</v>
+      </c>
+      <c r="K1468" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1468" t="n">
+        <v>5442</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1468"/>
+  <dimension ref="A1:L1473"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -52852,6 +52852,206 @@
         <v>5442</v>
       </c>
     </row>
+    <row r="1469">
+      <c r="A1469" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="B1469" t="n">
+        <v>75685</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>-4367</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>69322</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>64955</v>
+      </c>
+      <c r="F1469" t="n">
+        <v>140640</v>
+      </c>
+      <c r="G1469" t="n">
+        <v>89538</v>
+      </c>
+      <c r="H1469" t="n">
+        <v>235657</v>
+      </c>
+      <c r="I1469" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1469" t="n">
+        <v>-1277</v>
+      </c>
+      <c r="K1469" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1469" t="n">
+        <v>5479</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B1470" t="n">
+        <v>75685</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>-4367</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>69481</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>65114</v>
+      </c>
+      <c r="F1470" t="n">
+        <v>140799</v>
+      </c>
+      <c r="G1470" t="n">
+        <v>89490</v>
+      </c>
+      <c r="H1470" t="n">
+        <v>235719</v>
+      </c>
+      <c r="I1470" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1470" t="n">
+        <v>-1290</v>
+      </c>
+      <c r="K1470" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1470" t="n">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="inlineStr">
+        <is>
+          <t>2023-11-18</t>
+        </is>
+      </c>
+      <c r="B1471" t="n">
+        <v>75685</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>-4367</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>69395</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>65028</v>
+      </c>
+      <c r="F1471" t="n">
+        <v>140713</v>
+      </c>
+      <c r="G1471" t="n">
+        <v>88965</v>
+      </c>
+      <c r="H1471" t="n">
+        <v>235109</v>
+      </c>
+      <c r="I1471" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1471" t="n">
+        <v>-1285</v>
+      </c>
+      <c r="K1471" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1471" t="n">
+        <v>5431</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="inlineStr">
+        <is>
+          <t>2023-11-23</t>
+        </is>
+      </c>
+      <c r="B1472" t="n">
+        <v>75685</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>-4370</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>70133</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>65763</v>
+      </c>
+      <c r="F1472" t="n">
+        <v>141448</v>
+      </c>
+      <c r="G1472" t="n">
+        <v>89574</v>
+      </c>
+      <c r="H1472" t="n">
+        <v>236468</v>
+      </c>
+      <c r="I1472" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1472" t="n">
+        <v>-1269</v>
+      </c>
+      <c r="K1472" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1472" t="n">
+        <v>5446</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="B1473" t="n">
+        <v>75685</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>-4361</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>69884</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>65523</v>
+      </c>
+      <c r="F1473" t="n">
+        <v>141208</v>
+      </c>
+      <c r="G1473" t="n">
+        <v>89541</v>
+      </c>
+      <c r="H1473" t="n">
+        <v>236175</v>
+      </c>
+      <c r="I1473" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1473" t="n">
+        <v>-1258</v>
+      </c>
+      <c r="K1473" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1473" t="n">
+        <v>5426</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1473"/>
+  <dimension ref="A1:L1474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -53025,31 +53025,71 @@
         <v>-4361</v>
       </c>
       <c r="D1473" t="n">
-        <v>69884</v>
+        <v>65608</v>
       </c>
       <c r="E1473" t="n">
-        <v>65523</v>
+        <v>61247</v>
       </c>
       <c r="F1473" t="n">
-        <v>141208</v>
+        <v>136932</v>
       </c>
       <c r="G1473" t="n">
         <v>89541</v>
       </c>
       <c r="H1473" t="n">
-        <v>236175</v>
+        <v>231899</v>
       </c>
       <c r="I1473" t="n">
         <v>72.95</v>
       </c>
       <c r="J1473" t="n">
-        <v>-1258</v>
+        <v>-1257</v>
       </c>
       <c r="K1473" t="n">
         <v>8000</v>
       </c>
       <c r="L1473" t="n">
         <v>5426</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="B1474" t="n">
+        <v>75685</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>-4361</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>67169</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>62808</v>
+      </c>
+      <c r="F1474" t="n">
+        <v>138493</v>
+      </c>
+      <c r="G1474" t="n">
+        <v>89541</v>
+      </c>
+      <c r="H1474" t="n">
+        <v>233457</v>
+      </c>
+      <c r="I1474" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1474" t="n">
+        <v>-1888</v>
+      </c>
+      <c r="K1474" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1474" t="n">
+        <v>5423</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1474"/>
+  <dimension ref="A1:L1484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -53092,6 +53092,406 @@
         <v>5423</v>
       </c>
     </row>
+    <row r="1475">
+      <c r="A1475" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="B1475" t="n">
+        <v>75685</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>-4365</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>67531</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>63166</v>
+      </c>
+      <c r="F1475" t="n">
+        <v>138851</v>
+      </c>
+      <c r="G1475" t="n">
+        <v>88667</v>
+      </c>
+      <c r="H1475" t="n">
+        <v>233008</v>
+      </c>
+      <c r="I1475" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1475" t="n">
+        <v>-1856</v>
+      </c>
+      <c r="K1475" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1475" t="n">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="inlineStr">
+        <is>
+          <t>2023-12-05</t>
+        </is>
+      </c>
+      <c r="B1476" t="n">
+        <v>75685</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>-4380</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>68076</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>63696</v>
+      </c>
+      <c r="F1476" t="n">
+        <v>139381</v>
+      </c>
+      <c r="G1476" t="n">
+        <v>88656</v>
+      </c>
+      <c r="H1476" t="n">
+        <v>233532</v>
+      </c>
+      <c r="I1476" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1476" t="n">
+        <v>-1779</v>
+      </c>
+      <c r="K1476" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1476" t="n">
+        <v>5495</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="B1477" t="n">
+        <v>75685</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>-4361</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>69157</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>64796</v>
+      </c>
+      <c r="F1477" t="n">
+        <v>140481</v>
+      </c>
+      <c r="G1477" t="n">
+        <v>88937</v>
+      </c>
+      <c r="H1477" t="n">
+        <v>234958</v>
+      </c>
+      <c r="I1477" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1477" t="n">
+        <v>-1730</v>
+      </c>
+      <c r="K1477" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1477" t="n">
+        <v>5540</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="B1478" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>-4370</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>69946</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>65576</v>
+      </c>
+      <c r="F1478" t="n">
+        <v>140261</v>
+      </c>
+      <c r="G1478" t="n">
+        <v>90304</v>
+      </c>
+      <c r="H1478" t="n">
+        <v>236786</v>
+      </c>
+      <c r="I1478" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1478" t="n">
+        <v>-1594</v>
+      </c>
+      <c r="K1478" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1478" t="n">
+        <v>6221</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
+      </c>
+      <c r="B1479" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>-4365</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>70372</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>66007</v>
+      </c>
+      <c r="F1479" t="n">
+        <v>140692</v>
+      </c>
+      <c r="G1479" t="n">
+        <v>90301</v>
+      </c>
+      <c r="H1479" t="n">
+        <v>237201</v>
+      </c>
+      <c r="I1479" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1479" t="n">
+        <v>-1586</v>
+      </c>
+      <c r="K1479" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1479" t="n">
+        <v>6208</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B1480" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>-4365</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>69369</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>65004</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>139689</v>
+      </c>
+      <c r="G1480" t="n">
+        <v>90258</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>236120</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1480" t="n">
+        <v>-1565</v>
+      </c>
+      <c r="K1480" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1480" t="n">
+        <v>6173</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>2023-12-25</t>
+        </is>
+      </c>
+      <c r="B1481" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>-4350</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>69623</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>65273</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>139958</v>
+      </c>
+      <c r="G1481" t="n">
+        <v>90259</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>236384</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1481" t="n">
+        <v>-1571</v>
+      </c>
+      <c r="K1481" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1481" t="n">
+        <v>6167</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+      <c r="B1482" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>-4350</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>69897</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>65547</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>140232</v>
+      </c>
+      <c r="G1482" t="n">
+        <v>90259</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>236651</v>
+      </c>
+      <c r="I1482" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1482" t="n">
+        <v>-1601</v>
+      </c>
+      <c r="K1482" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1482" t="n">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="B1483" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>-4350</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>70286</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>65936</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>140621</v>
+      </c>
+      <c r="G1483" t="n">
+        <v>89685</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>236524</v>
+      </c>
+      <c r="I1483" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1483" t="n">
+        <v>-1577</v>
+      </c>
+      <c r="K1483" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1483" t="n">
+        <v>6218</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>2023-12-31</t>
+        </is>
+      </c>
+      <c r="B1484" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>-4350</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>72446</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>68096</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>142781</v>
+      </c>
+      <c r="G1484" t="n">
+        <v>92587</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>241582</v>
+      </c>
+      <c r="I1484" t="n">
+        <v>72.95</v>
+      </c>
+      <c r="J1484" t="n">
+        <v>-1590</v>
+      </c>
+      <c r="K1484" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1484" t="n">
+        <v>6214</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1484"/>
+  <dimension ref="A1:L1487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -53492,6 +53492,126 @@
         <v>6214</v>
       </c>
     </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="B1485" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>-4350</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>72463</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>68113</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>142798</v>
+      </c>
+      <c r="G1485" t="n">
+        <v>92587</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>241599</v>
+      </c>
+      <c r="I1485" t="n">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="J1485" t="n">
+        <v>-1587</v>
+      </c>
+      <c r="K1485" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1485" t="n">
+        <v>6214</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>2024-01-06</t>
+        </is>
+      </c>
+      <c r="B1486" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>-6486</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>70420</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>63934</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>138619</v>
+      </c>
+      <c r="G1486" t="n">
+        <v>92400</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>236482</v>
+      </c>
+      <c r="I1486" t="n">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="J1486" t="n">
+        <v>-1566</v>
+      </c>
+      <c r="K1486" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1486" t="n">
+        <v>5463</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>2024-01-12</t>
+        </is>
+      </c>
+      <c r="B1487" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>-4282</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>71963</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>67681</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>142366</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>92632</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>241279</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>-1533</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>6281</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1487"/>
+  <dimension ref="A1:L1490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -53612,6 +53612,126 @@
         <v>6281</v>
       </c>
     </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>2024-01-21</t>
+        </is>
+      </c>
+      <c r="B1488" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>-4232</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>74932</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>70700</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>145385</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>92345</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>244120</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>-1573</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>6390</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>2024-02-03</t>
+        </is>
+      </c>
+      <c r="B1489" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>-4191</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>75923</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>71732</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>146417</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>93699</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>246662</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>-1559</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>6546</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>2024-02-09</t>
+        </is>
+      </c>
+      <c r="B1490" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>-4146</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>77451</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>73305</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>147990</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>93808</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>248662</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>-1461</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>6864</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1490"/>
+  <dimension ref="A1:L1492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -53705,19 +53705,19 @@
         <v>-4146</v>
       </c>
       <c r="D1490" t="n">
-        <v>77451</v>
+        <v>77453</v>
       </c>
       <c r="E1490" t="n">
-        <v>73305</v>
+        <v>73307</v>
       </c>
       <c r="F1490" t="n">
-        <v>147990</v>
+        <v>147992</v>
       </c>
       <c r="G1490" t="n">
         <v>93808</v>
       </c>
       <c r="H1490" t="n">
-        <v>248662</v>
+        <v>248664</v>
       </c>
       <c r="I1490" t="n">
         <v>82.04000000000001</v>
@@ -53730,6 +53730,86 @@
       </c>
       <c r="L1490" t="n">
         <v>6864</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="B1491" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>-4160</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>77149</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>72989</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>147674</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>93907</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>248404</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>-1354</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>6823</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>2024-02-24</t>
+        </is>
+      </c>
+      <c r="B1492" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>-4104</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>77286</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>73182</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>147867</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>94021</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>248795</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>-1353</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>6907</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1492"/>
+  <dimension ref="A1:L1495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -53812,6 +53812,126 @@
         <v>6907</v>
       </c>
     </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>2024-02-25</t>
+        </is>
+      </c>
+      <c r="B1493" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>-4104</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>77163</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>73059</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>147744</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>90352</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>245189</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>-1737</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>7093</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1494" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>-4127</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>77934</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>73807</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>148492</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>90261</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>245828</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>-1423</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>7075</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="B1495" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>-4097</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>75588</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>71491</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>146176</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>90856</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>244212</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>-1200</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>6844</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>7180</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1495"/>
+  <dimension ref="A1:L1498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -53932,6 +53932,126 @@
         <v>7180</v>
       </c>
     </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="B1496" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>-4097</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>75584</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>71487</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>146172</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>90856</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>244204</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>-1204</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>6844</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>7176</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="B1497" t="n">
+        <v>74685</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>-4042</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>75804</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>71762</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>146447</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>91418</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>245222</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>-1306</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>6844</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>7357</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
+      </c>
+      <c r="B1498" t="n">
+        <v>69632</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>-4276</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>80486</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>76210</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>145842</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>91388</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>244649</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>-952</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>6844</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>7419</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1498"/>
+  <dimension ref="A1:L1499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -54025,19 +54025,19 @@
         <v>-4276</v>
       </c>
       <c r="D1498" t="n">
-        <v>80486</v>
+        <v>80456</v>
       </c>
       <c r="E1498" t="n">
-        <v>76210</v>
+        <v>76180</v>
       </c>
       <c r="F1498" t="n">
-        <v>145842</v>
+        <v>145812</v>
       </c>
       <c r="G1498" t="n">
         <v>91388</v>
       </c>
       <c r="H1498" t="n">
-        <v>244649</v>
+        <v>244619</v>
       </c>
       <c r="I1498" t="n">
         <v>82.04000000000001</v>
@@ -54050,6 +54050,46 @@
       </c>
       <c r="L1498" t="n">
         <v>7419</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="B1499" t="n">
+        <v>69632</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>-4276</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>80168</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>75892</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>145524</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>91388</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>244315</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>-998</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>6844</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>7403</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1499"/>
+  <dimension ref="A1:L1500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -54092,6 +54092,46 @@
         <v>7403</v>
       </c>
     </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="B1500" t="n">
+        <v>69632</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>-4416</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>78208</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>73792</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>143424</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>90796</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>241406</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>82.04000000000001</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>-1012</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>6844</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>7186</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1500"/>
+  <dimension ref="A1:L1501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -54132,6 +54132,46 @@
         <v>7186</v>
       </c>
     </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>2024-06-01</t>
+        </is>
+      </c>
+      <c r="B1501" t="n">
+        <v>69632</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>-4434</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>81921</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>77487</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>147119</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>91599</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>246238</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>-962</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>6844</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>7520</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -54182,28 +54182,28 @@
         <v>52185</v>
       </c>
       <c r="C1502" t="n">
-        <v>-10000</v>
+        <v>-4441</v>
       </c>
       <c r="D1502" t="n">
-        <v>87501</v>
+        <v>87500</v>
       </c>
       <c r="E1502" t="n">
-        <v>77501</v>
+        <v>83059</v>
       </c>
       <c r="F1502" t="n">
-        <v>129686</v>
+        <v>135244</v>
       </c>
       <c r="G1502" t="n">
-        <v>78557</v>
+        <v>77520</v>
       </c>
       <c r="H1502" t="n">
-        <v>217022</v>
+        <v>221543</v>
       </c>
       <c r="I1502" t="n">
         <v>91.13</v>
       </c>
       <c r="J1502" t="n">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K1502" t="n">
         <v>4400</v>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -54182,34 +54182,34 @@
         <v>52185</v>
       </c>
       <c r="C1502" t="n">
-        <v>-4441</v>
+        <v>-4454</v>
       </c>
       <c r="D1502" t="n">
-        <v>87500</v>
+        <v>87586</v>
       </c>
       <c r="E1502" t="n">
-        <v>83059</v>
+        <v>83132</v>
       </c>
       <c r="F1502" t="n">
-        <v>135244</v>
+        <v>135317</v>
       </c>
       <c r="G1502" t="n">
-        <v>77520</v>
+        <v>78554</v>
       </c>
       <c r="H1502" t="n">
-        <v>221543</v>
+        <v>222660</v>
       </c>
       <c r="I1502" t="n">
         <v>91.13</v>
       </c>
       <c r="J1502" t="n">
-        <v>836</v>
+        <v>873</v>
       </c>
       <c r="K1502" t="n">
         <v>4400</v>
       </c>
       <c r="L1502" t="n">
-        <v>8779</v>
+        <v>8789</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -54185,31 +54185,31 @@
         <v>-4454</v>
       </c>
       <c r="D1502" t="n">
-        <v>87586</v>
+        <v>87389</v>
       </c>
       <c r="E1502" t="n">
-        <v>83132</v>
+        <v>82935</v>
       </c>
       <c r="F1502" t="n">
-        <v>135317</v>
+        <v>135120</v>
       </c>
       <c r="G1502" t="n">
         <v>78554</v>
       </c>
       <c r="H1502" t="n">
-        <v>222660</v>
+        <v>222461</v>
       </c>
       <c r="I1502" t="n">
         <v>91.13</v>
       </c>
       <c r="J1502" t="n">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="K1502" t="n">
         <v>4400</v>
       </c>
       <c r="L1502" t="n">
-        <v>8789</v>
+        <v>8787</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1502"/>
+  <dimension ref="A1:L1503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -54212,6 +54212,46 @@
         <v>8787</v>
       </c>
     </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B1503" t="n">
+        <v>52185</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>-4771</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>86137</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>81366</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>133551</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>77906</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>220089</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>-135</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>8632</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1503"/>
+  <dimension ref="A1:L1504"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -54252,6 +54252,46 @@
         <v>8632</v>
       </c>
     </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="B1504" t="n">
+        <v>52185</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>-4468</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>84006</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>79538</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>131723</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>79040</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>219259</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>875</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>8496</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1504"/>
+  <dimension ref="A1:L1505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -54265,31 +54265,71 @@
         <v>-4468</v>
       </c>
       <c r="D1504" t="n">
-        <v>84006</v>
+        <v>83997</v>
       </c>
       <c r="E1504" t="n">
-        <v>79538</v>
+        <v>79529</v>
       </c>
       <c r="F1504" t="n">
-        <v>131723</v>
+        <v>131714</v>
       </c>
       <c r="G1504" t="n">
         <v>79040</v>
       </c>
       <c r="H1504" t="n">
-        <v>219259</v>
+        <v>219251</v>
       </c>
       <c r="I1504" t="n">
         <v>91.13</v>
       </c>
       <c r="J1504" t="n">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="K1504" t="n">
         <v>4400</v>
       </c>
       <c r="L1504" t="n">
-        <v>8496</v>
+        <v>8497</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="inlineStr">
+        <is>
+          <t>2024-08-03</t>
+        </is>
+      </c>
+      <c r="B1505" t="n">
+        <v>52185</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>-4471</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>79440</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>74969</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>127154</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>78085</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>213223</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>741</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>7984</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1505"/>
+  <dimension ref="A1:L1506"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -54305,31 +54305,71 @@
         <v>-4471</v>
       </c>
       <c r="D1505" t="n">
-        <v>79440</v>
+        <v>79441</v>
       </c>
       <c r="E1505" t="n">
-        <v>74969</v>
+        <v>74970</v>
       </c>
       <c r="F1505" t="n">
-        <v>127154</v>
+        <v>127155</v>
       </c>
       <c r="G1505" t="n">
-        <v>78085</v>
+        <v>78394</v>
       </c>
       <c r="H1505" t="n">
-        <v>213223</v>
+        <v>213693</v>
       </c>
       <c r="I1505" t="n">
         <v>91.13</v>
       </c>
       <c r="J1505" t="n">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="K1505" t="n">
         <v>4400</v>
       </c>
       <c r="L1505" t="n">
-        <v>7984</v>
+        <v>8144</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="B1506" t="n">
+        <v>52185</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>-4471</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>79439</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>74968</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>127153</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>78394</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>213691</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>738</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>8144</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1506"/>
+  <dimension ref="A1:L1507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -54345,31 +54345,71 @@
         <v>-4471</v>
       </c>
       <c r="D1506" t="n">
-        <v>79439</v>
+        <v>79436</v>
       </c>
       <c r="E1506" t="n">
-        <v>74968</v>
+        <v>74965</v>
       </c>
       <c r="F1506" t="n">
-        <v>127153</v>
+        <v>127150</v>
       </c>
       <c r="G1506" t="n">
         <v>78394</v>
       </c>
       <c r="H1506" t="n">
-        <v>213691</v>
+        <v>213686</v>
       </c>
       <c r="I1506" t="n">
         <v>91.13</v>
       </c>
       <c r="J1506" t="n">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="K1506" t="n">
         <v>4400</v>
       </c>
       <c r="L1506" t="n">
-        <v>8144</v>
+        <v>8142</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="inlineStr">
+        <is>
+          <t>2024-08-18</t>
+        </is>
+      </c>
+      <c r="B1507" t="n">
+        <v>51185</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>-4534</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>81153</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>76619</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>127804</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>78073</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>214310</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>682</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>8433</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -54385,25 +54385,25 @@
         <v>-4534</v>
       </c>
       <c r="D1507" t="n">
-        <v>81153</v>
+        <v>81152</v>
       </c>
       <c r="E1507" t="n">
-        <v>76619</v>
+        <v>76618</v>
       </c>
       <c r="F1507" t="n">
-        <v>127804</v>
+        <v>127803</v>
       </c>
       <c r="G1507" t="n">
-        <v>78073</v>
+        <v>71974</v>
       </c>
       <c r="H1507" t="n">
-        <v>214310</v>
+        <v>208210</v>
       </c>
       <c r="I1507" t="n">
         <v>91.13</v>
       </c>
       <c r="J1507" t="n">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K1507" t="n">
         <v>4400</v>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -54385,31 +54385,31 @@
         <v>-4534</v>
       </c>
       <c r="D1507" t="n">
-        <v>81152</v>
+        <v>81155</v>
       </c>
       <c r="E1507" t="n">
-        <v>76618</v>
+        <v>76621</v>
       </c>
       <c r="F1507" t="n">
-        <v>127803</v>
+        <v>127806</v>
       </c>
       <c r="G1507" t="n">
-        <v>71974</v>
+        <v>78073</v>
       </c>
       <c r="H1507" t="n">
-        <v>208210</v>
+        <v>214313</v>
       </c>
       <c r="I1507" t="n">
         <v>91.13</v>
       </c>
       <c r="J1507" t="n">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="K1507" t="n">
         <v>4400</v>
       </c>
       <c r="L1507" t="n">
-        <v>8433</v>
+        <v>8434</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1507"/>
+  <dimension ref="A1:L1508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -54412,6 +54412,46 @@
         <v>8434</v>
       </c>
     </row>
+    <row r="1508">
+      <c r="A1508" t="inlineStr">
+        <is>
+          <t>2024-08-24</t>
+        </is>
+      </c>
+      <c r="B1508" t="n">
+        <v>51185</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>-10000</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>80223</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>70223</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>121408</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>71034</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>199945</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>745</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>7503</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -394,7 +394,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1508"/>
+  <dimension ref="A1:L1509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1004" activePane="bottomRight" state="frozenSplit"/>
@@ -54452,6 +54452,46 @@
         <v>7503</v>
       </c>
     </row>
+    <row r="1509">
+      <c r="A1509" t="inlineStr">
+        <is>
+          <t>2024-08-31</t>
+        </is>
+      </c>
+      <c r="B1509" t="n">
+        <v>51185</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>-6663</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>81694</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>75031</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>126216</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>78384</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>213158</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>873</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>8558</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -54462,34 +54462,34 @@
         <v>51185</v>
       </c>
       <c r="C1509" t="n">
-        <v>-6663</v>
+        <v>-4567</v>
       </c>
       <c r="D1509" t="n">
-        <v>81694</v>
+        <v>81691</v>
       </c>
       <c r="E1509" t="n">
-        <v>75031</v>
+        <v>77124</v>
       </c>
       <c r="F1509" t="n">
-        <v>126216</v>
+        <v>128309</v>
       </c>
       <c r="G1509" t="n">
         <v>78384</v>
       </c>
       <c r="H1509" t="n">
-        <v>213158</v>
+        <v>215110</v>
       </c>
       <c r="I1509" t="n">
         <v>91.13</v>
       </c>
       <c r="J1509" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="K1509" t="n">
         <v>4400</v>
       </c>
       <c r="L1509" t="n">
-        <v>8558</v>
+        <v>8417</v>
       </c>
     </row>
   </sheetData>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -336,7 +336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L1510"/>
+  <dimension ref="A1:L1511"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1497" activePane="bottomRight" state="frozen"/>
@@ -54475,6 +54475,46 @@
         <v>8182</v>
       </c>
     </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-07</t>
+        </is>
+      </c>
+      <c r="B1511" s="2" t="n">
+        <v>51185</v>
+      </c>
+      <c r="C1511" s="2" t="n">
+        <v>-4191</v>
+      </c>
+      <c r="D1511" s="2" t="n">
+        <v>80204</v>
+      </c>
+      <c r="E1511" s="2" t="n">
+        <v>76013</v>
+      </c>
+      <c r="F1511" s="2" t="n">
+        <v>127198</v>
+      </c>
+      <c r="G1511" s="2" t="n">
+        <v>79206</v>
+      </c>
+      <c r="H1511" s="2" t="n">
+        <v>215351</v>
+      </c>
+      <c r="I1511" s="2" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1511" s="2" t="n">
+        <v>778</v>
+      </c>
+      <c r="K1511" s="2" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1511" s="2" t="n">
+        <v>8947</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="3"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -336,7 +336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L1511"/>
+  <dimension ref="A1:L1513"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1497" activePane="bottomRight" state="frozen"/>
@@ -54515,6 +54515,86 @@
         <v>8947</v>
       </c>
     </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-12</t>
+        </is>
+      </c>
+      <c r="B1512" s="2" t="n">
+        <v>51185</v>
+      </c>
+      <c r="C1512" s="2" t="n">
+        <v>-4141</v>
+      </c>
+      <c r="D1512" s="2" t="n">
+        <v>80299</v>
+      </c>
+      <c r="E1512" s="2" t="n">
+        <v>76158</v>
+      </c>
+      <c r="F1512" s="2" t="n">
+        <v>127343</v>
+      </c>
+      <c r="G1512" s="2" t="n">
+        <v>78153</v>
+      </c>
+      <c r="H1512" s="2" t="n">
+        <v>213987</v>
+      </c>
+      <c r="I1512" s="2" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1512" s="2" t="n">
+        <v>847</v>
+      </c>
+      <c r="K1512" s="2" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1512" s="2" t="n">
+        <v>8491</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-21</t>
+        </is>
+      </c>
+      <c r="B1513" s="2" t="n">
+        <v>51185</v>
+      </c>
+      <c r="C1513" s="2" t="n">
+        <v>-4155</v>
+      </c>
+      <c r="D1513" s="2" t="n">
+        <v>83131</v>
+      </c>
+      <c r="E1513" s="2" t="n">
+        <v>78976</v>
+      </c>
+      <c r="F1513" s="2" t="n">
+        <v>130161</v>
+      </c>
+      <c r="G1513" s="2" t="n">
+        <v>78481</v>
+      </c>
+      <c r="H1513" s="2" t="n">
+        <v>217119</v>
+      </c>
+      <c r="I1513" s="2" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1513" s="2" t="n">
+        <v>934</v>
+      </c>
+      <c r="K1513" s="2" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1513" s="2" t="n">
+        <v>8477</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="3"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -336,7 +336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L1513"/>
+  <dimension ref="A1:L1517"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1497" activePane="bottomRight" state="frozen"/>
@@ -54595,6 +54595,166 @@
         <v>8477</v>
       </c>
     </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="B1514" s="2" t="n">
+        <v>51185</v>
+      </c>
+      <c r="C1514" s="2" t="n">
+        <v>-4132</v>
+      </c>
+      <c r="D1514" s="2" t="n">
+        <v>83938</v>
+      </c>
+      <c r="E1514" s="2" t="n">
+        <v>79806</v>
+      </c>
+      <c r="F1514" s="2" t="n">
+        <v>130991</v>
+      </c>
+      <c r="G1514" s="2" t="n">
+        <v>78416</v>
+      </c>
+      <c r="H1514" s="2" t="n">
+        <v>217584</v>
+      </c>
+      <c r="I1514" s="2" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1514" s="2" t="n">
+        <v>993</v>
+      </c>
+      <c r="K1514" s="2" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1514" s="2" t="n">
+        <v>8177</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-29</t>
+        </is>
+      </c>
+      <c r="B1515" s="2" t="n">
+        <v>51185</v>
+      </c>
+      <c r="C1515" s="2" t="n">
+        <v>-6211</v>
+      </c>
+      <c r="D1515" s="2" t="n">
+        <v>83979</v>
+      </c>
+      <c r="E1515" s="2" t="n">
+        <v>77768</v>
+      </c>
+      <c r="F1515" s="2" t="n">
+        <v>128953</v>
+      </c>
+      <c r="G1515" s="2" t="n">
+        <v>78416</v>
+      </c>
+      <c r="H1515" s="2" t="n">
+        <v>215935</v>
+      </c>
+      <c r="I1515" s="2" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1515" s="2" t="n">
+        <v>976</v>
+      </c>
+      <c r="K1515" s="2" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1515" s="2" t="n">
+        <v>8566</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="B1516" s="2" t="n">
+        <v>51185</v>
+      </c>
+      <c r="C1516" s="2" t="n">
+        <v>-4125</v>
+      </c>
+      <c r="D1516" s="2" t="n">
+        <v>83505</v>
+      </c>
+      <c r="E1516" s="2" t="n">
+        <v>79380</v>
+      </c>
+      <c r="F1516" s="2" t="n">
+        <v>130565</v>
+      </c>
+      <c r="G1516" s="2" t="n">
+        <v>78579</v>
+      </c>
+      <c r="H1516" s="2" t="n">
+        <v>217434</v>
+      </c>
+      <c r="I1516" s="2" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1516" s="2" t="n">
+        <v>931</v>
+      </c>
+      <c r="K1516" s="2" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1516" s="2" t="n">
+        <v>8290</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-12</t>
+        </is>
+      </c>
+      <c r="B1517" s="2" t="n">
+        <v>51185</v>
+      </c>
+      <c r="C1517" s="2" t="n">
+        <v>-9588</v>
+      </c>
+      <c r="D1517" s="2" t="n">
+        <v>83849</v>
+      </c>
+      <c r="E1517" s="2" t="n">
+        <v>74261</v>
+      </c>
+      <c r="F1517" s="2" t="n">
+        <v>125446</v>
+      </c>
+      <c r="G1517" s="2" t="n">
+        <v>72149</v>
+      </c>
+      <c r="H1517" s="2" t="n">
+        <v>206428</v>
+      </c>
+      <c r="I1517" s="2" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1517" s="2" t="n">
+        <v>1297</v>
+      </c>
+      <c r="K1517" s="2" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1517" s="2" t="n">
+        <v>8833</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="3"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -336,7 +336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L1517"/>
+  <dimension ref="A1:L1518"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1497" activePane="bottomRight" state="frozen"/>
@@ -54755,6 +54755,46 @@
         <v>8833</v>
       </c>
     </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="B1518" s="2" t="n">
+        <v>51185</v>
+      </c>
+      <c r="C1518" s="2" t="n">
+        <v>-9575</v>
+      </c>
+      <c r="D1518" s="2" t="n">
+        <v>83402</v>
+      </c>
+      <c r="E1518" s="2" t="n">
+        <v>73827</v>
+      </c>
+      <c r="F1518" s="2" t="n">
+        <v>125012</v>
+      </c>
+      <c r="G1518" s="2" t="n">
+        <v>72275</v>
+      </c>
+      <c r="H1518" s="2" t="n">
+        <v>205446</v>
+      </c>
+      <c r="I1518" s="2" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1518" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K1518" s="2" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1518" s="2" t="n">
+        <v>8159</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="3"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -54768,31 +54768,31 @@
         <v>-9575</v>
       </c>
       <c r="D1518" s="2" t="n">
-        <v>83402</v>
+        <v>84736</v>
       </c>
       <c r="E1518" s="2" t="n">
-        <v>73827</v>
+        <v>75161</v>
       </c>
       <c r="F1518" s="2" t="n">
-        <v>125012</v>
+        <v>126346</v>
       </c>
       <c r="G1518" s="2" t="n">
         <v>72275</v>
       </c>
       <c r="H1518" s="2" t="n">
-        <v>205446</v>
+        <v>207029</v>
       </c>
       <c r="I1518" s="2" t="n">
         <v>91.13</v>
       </c>
       <c r="J1518" s="2" t="n">
-        <v>50</v>
+        <v>1384</v>
       </c>
       <c r="K1518" s="2" t="n">
         <v>4400</v>
       </c>
       <c r="L1518" s="2" t="n">
-        <v>8159</v>
+        <v>8408</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="3"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -54765,34 +54765,34 @@
         <v>51185</v>
       </c>
       <c r="C1518" s="2" t="n">
-        <v>-9575</v>
+        <v>-4437</v>
       </c>
       <c r="D1518" s="2" t="n">
-        <v>84736</v>
+        <v>75166</v>
       </c>
       <c r="E1518" s="2" t="n">
-        <v>75161</v>
+        <v>70729</v>
       </c>
       <c r="F1518" s="2" t="n">
-        <v>126346</v>
+        <v>121914</v>
       </c>
       <c r="G1518" s="2" t="n">
-        <v>72275</v>
+        <v>79250</v>
       </c>
       <c r="H1518" s="2" t="n">
-        <v>207029</v>
+        <v>210193</v>
       </c>
       <c r="I1518" s="2" t="n">
         <v>91.13</v>
       </c>
       <c r="J1518" s="2" t="n">
-        <v>1384</v>
+        <v>1388</v>
       </c>
       <c r="K1518" s="2" t="n">
         <v>4400</v>
       </c>
       <c r="L1518" s="2" t="n">
-        <v>8408</v>
+        <v>9029</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="3"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -336,7 +336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L1518"/>
+  <dimension ref="A1:L1520"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1497" activePane="bottomRight" state="frozen"/>
@@ -54795,6 +54795,86 @@
         <v>9029</v>
       </c>
     </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B1519" s="2" t="n">
+        <v>93532.5</v>
+      </c>
+      <c r="C1519" s="2" t="n">
+        <v>-4422</v>
+      </c>
+      <c r="D1519" s="2" t="n">
+        <v>75390</v>
+      </c>
+      <c r="E1519" s="2" t="n">
+        <v>70968</v>
+      </c>
+      <c r="F1519" s="2" t="n">
+        <v>164500.5</v>
+      </c>
+      <c r="G1519" s="2" t="n">
+        <v>121644</v>
+      </c>
+      <c r="H1519" s="2" t="n">
+        <v>295464.5</v>
+      </c>
+      <c r="I1519" s="2" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1519" s="2" t="n">
+        <v>1392</v>
+      </c>
+      <c r="K1519" s="2" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1519" s="2" t="n">
+        <v>9320</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-27</t>
+        </is>
+      </c>
+      <c r="B1520" s="2" t="n">
+        <v>93532.5</v>
+      </c>
+      <c r="C1520" s="2" t="n">
+        <v>-3996</v>
+      </c>
+      <c r="D1520" s="2" t="n">
+        <v>75991</v>
+      </c>
+      <c r="E1520" s="2" t="n">
+        <v>71995</v>
+      </c>
+      <c r="F1520" s="2" t="n">
+        <v>165527.5</v>
+      </c>
+      <c r="G1520" s="2" t="n">
+        <v>121757</v>
+      </c>
+      <c r="H1520" s="2" t="n">
+        <v>296676.5</v>
+      </c>
+      <c r="I1520" s="2" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1520" s="2" t="n">
+        <v>1387</v>
+      </c>
+      <c r="K1520" s="2" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1520" s="2" t="n">
+        <v>9392</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="3"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -54845,34 +54845,34 @@
         <v>93532.5</v>
       </c>
       <c r="C1520" s="2" t="n">
-        <v>-3996</v>
+        <v>-4422</v>
       </c>
       <c r="D1520" s="2" t="n">
-        <v>75991</v>
+        <v>85863</v>
       </c>
       <c r="E1520" s="2" t="n">
-        <v>71995</v>
+        <v>81441</v>
       </c>
       <c r="F1520" s="2" t="n">
-        <v>165527.5</v>
+        <v>174973.5</v>
       </c>
       <c r="G1520" s="2" t="n">
         <v>121757</v>
       </c>
       <c r="H1520" s="2" t="n">
-        <v>296676.5</v>
+        <v>305603.5</v>
       </c>
       <c r="I1520" s="2" t="n">
         <v>91.13</v>
       </c>
       <c r="J1520" s="2" t="n">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="K1520" s="2" t="n">
         <v>4400</v>
       </c>
       <c r="L1520" s="2" t="n">
-        <v>9392</v>
+        <v>8873</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="3"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -336,7 +336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L1520"/>
+  <dimension ref="A1:L1521"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1497" activePane="bottomRight" state="frozen"/>
@@ -54875,6 +54875,46 @@
         <v>8873</v>
       </c>
     </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="B1521" s="2" t="n">
+        <v>93532.5</v>
+      </c>
+      <c r="C1521" s="2" t="n">
+        <v>-4102</v>
+      </c>
+      <c r="D1521" s="2" t="n">
+        <v>85687</v>
+      </c>
+      <c r="E1521" s="2" t="n">
+        <v>81585</v>
+      </c>
+      <c r="F1521" s="2" t="n">
+        <v>175117.5</v>
+      </c>
+      <c r="G1521" s="2" t="n">
+        <v>121307</v>
+      </c>
+      <c r="H1521" s="2" t="n">
+        <v>305654.5</v>
+      </c>
+      <c r="I1521" s="2" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1521" s="2" t="n">
+        <v>1469</v>
+      </c>
+      <c r="K1521" s="2" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1521" s="2" t="n">
+        <v>9230</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="3"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -336,7 +336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L1521"/>
+  <dimension ref="A1:L1522"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1497" activePane="bottomRight" state="frozen"/>
@@ -54915,6 +54915,46 @@
         <v>9230</v>
       </c>
     </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="B1522" s="2" t="n">
+        <v>93532.5</v>
+      </c>
+      <c r="C1522" s="2" t="n">
+        <v>-10000</v>
+      </c>
+      <c r="D1522" s="2" t="n">
+        <v>88620</v>
+      </c>
+      <c r="E1522" s="2" t="n">
+        <v>78620</v>
+      </c>
+      <c r="F1522" s="2" t="n">
+        <v>172152.5</v>
+      </c>
+      <c r="G1522" s="2" t="n">
+        <v>97091</v>
+      </c>
+      <c r="H1522" s="2" t="n">
+        <v>269729.5</v>
+      </c>
+      <c r="I1522" s="2" t="n">
+        <v>91.13</v>
+      </c>
+      <c r="J1522" s="2" t="n">
+        <v>1665</v>
+      </c>
+      <c r="K1522" s="2" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1522" s="2" t="n">
+        <v>486</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="3"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -336,7 +336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L1522"/>
+  <dimension ref="A1:L1523"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B1497" activePane="bottomRight" state="frozen"/>
@@ -54955,6 +54955,46 @@
         <v>486</v>
       </c>
     </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="inlineStr">
+        <is>
+          <t>2024-12-01</t>
+        </is>
+      </c>
+      <c r="B1523" s="2" t="n">
+        <v>86016</v>
+      </c>
+      <c r="C1523" s="2" t="n">
+        <v>-3381</v>
+      </c>
+      <c r="D1523" s="2" t="n">
+        <v>91635</v>
+      </c>
+      <c r="E1523" s="2" t="n">
+        <v>88254</v>
+      </c>
+      <c r="F1523" s="2" t="n">
+        <v>174270</v>
+      </c>
+      <c r="G1523" s="2" t="n">
+        <v>113289</v>
+      </c>
+      <c r="H1523" s="2" t="n">
+        <v>299067</v>
+      </c>
+      <c r="I1523" s="2" t="n">
+        <v>100.22</v>
+      </c>
+      <c r="J1523" s="2" t="n">
+        <v>2028</v>
+      </c>
+      <c r="K1523" s="2" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1523" s="2" t="n">
+        <v>11508</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="3"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -54968,31 +54968,31 @@
         <v>-3381</v>
       </c>
       <c r="D1523" s="2" t="n">
-        <v>91635</v>
+        <v>91638</v>
       </c>
       <c r="E1523" s="2" t="n">
-        <v>88254</v>
+        <v>88257</v>
       </c>
       <c r="F1523" s="2" t="n">
-        <v>174270</v>
+        <v>174273</v>
       </c>
       <c r="G1523" s="2" t="n">
         <v>113289</v>
       </c>
       <c r="H1523" s="2" t="n">
-        <v>299067</v>
+        <v>299071</v>
       </c>
       <c r="I1523" s="2" t="n">
         <v>100.22</v>
       </c>
       <c r="J1523" s="2" t="n">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="K1523" s="2" t="n">
         <v>4400</v>
       </c>
       <c r="L1523" s="2" t="n">
-        <v>11508</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="3"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -55053,7 +55053,7 @@
         <v>123898</v>
       </c>
       <c r="H1525" t="n">
-        <v>323759</v>
+        <v>323760</v>
       </c>
       <c r="I1525" t="n">
         <v>109.31</v>
@@ -55065,7 +55065,7 @@
         <v>4400</v>
       </c>
       <c r="L1525" t="n">
-        <v>10289</v>
+        <v>10290</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="2"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -332,7 +332,7 @@
     <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L1525"/>
+  <dimension ref="A1:L1526"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" zoomScale="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -55068,6 +55068,46 @@
         <v>10290</v>
       </c>
     </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="B1526" t="n">
+        <v>86016</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>-2726</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>105344</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>102618</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>188634</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>124844</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>324118</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>109.31</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>-426</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>10640</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="2"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -332,7 +332,7 @@
     <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L1526"/>
+  <dimension ref="A1:L1527"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" zoomScale="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -55108,6 +55108,46 @@
         <v>10640</v>
       </c>
     </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="B1527" t="n">
+        <v>86016</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>-2735</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>104703</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>101968</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>187984</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>124624</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>323031</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>109.31</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>-426</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>10423</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="2"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -332,7 +332,7 @@
     <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L1527"/>
+  <dimension ref="A1:L1528"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" zoomScale="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -55148,6 +55148,46 @@
         <v>10423</v>
       </c>
     </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B1528" t="n">
+        <v>86016</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>-3417</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>104704</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>101287</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>187303</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>122131</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>320181</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>109.31</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>194</v>
+      </c>
+      <c r="K1528" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1528" t="n">
+        <v>10747</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="2"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -332,7 +332,7 @@
     <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L1528"/>
+  <dimension ref="A1:L1530"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" zoomScale="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -55188,6 +55188,86 @@
         <v>10747</v>
       </c>
     </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B1529" t="n">
+        <v>86016</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>-3381</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>103712</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>100331</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>186347</v>
+      </c>
+      <c r="G1529" t="n">
+        <v>122143</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>319213</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>109.31</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>203</v>
+      </c>
+      <c r="K1529" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1529" t="n">
+        <v>10723</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+      <c r="B1530" t="n">
+        <v>86016</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>-3439</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>104502</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>101063</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>187079</v>
+      </c>
+      <c r="G1530" t="n">
+        <v>122335</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>320206</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>109.31</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>203</v>
+      </c>
+      <c r="K1530" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1530" t="n">
+        <v>10792</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="2"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -332,7 +332,7 @@
     <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L1530"/>
+  <dimension ref="A1:L1531"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" zoomScale="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -55268,6 +55268,46 @@
         <v>10792</v>
       </c>
     </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
+      </c>
+      <c r="B1531" t="n">
+        <v>86016</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>-3544</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>96989</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>93445</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>179461</v>
+      </c>
+      <c r="G1531" t="n">
+        <v>120283</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>308929</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>109.31</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>203</v>
+      </c>
+      <c r="K1531" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1531" t="n">
+        <v>9185</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="2"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -55278,22 +55278,22 @@
         <v>86016</v>
       </c>
       <c r="C1531" t="n">
-        <v>-3544</v>
+        <v>-3540</v>
       </c>
       <c r="D1531" t="n">
-        <v>96989</v>
+        <v>97012</v>
       </c>
       <c r="E1531" t="n">
-        <v>93445</v>
+        <v>93472</v>
       </c>
       <c r="F1531" t="n">
-        <v>179461</v>
+        <v>179488</v>
       </c>
       <c r="G1531" t="n">
-        <v>120283</v>
+        <v>120304</v>
       </c>
       <c r="H1531" t="n">
-        <v>308929</v>
+        <v>308986</v>
       </c>
       <c r="I1531" t="n">
         <v>109.31</v>
@@ -55305,7 +55305,7 @@
         <v>4400</v>
       </c>
       <c r="L1531" t="n">
-        <v>9185</v>
+        <v>9194</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="2"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -55278,22 +55278,22 @@
         <v>86016</v>
       </c>
       <c r="C1531" t="n">
-        <v>-3540</v>
+        <v>-3539</v>
       </c>
       <c r="D1531" t="n">
-        <v>97012</v>
+        <v>97025</v>
       </c>
       <c r="E1531" t="n">
-        <v>93472</v>
+        <v>93486</v>
       </c>
       <c r="F1531" t="n">
-        <v>179488</v>
+        <v>179502</v>
       </c>
       <c r="G1531" t="n">
-        <v>120304</v>
+        <v>120320</v>
       </c>
       <c r="H1531" t="n">
-        <v>308986</v>
+        <v>309028</v>
       </c>
       <c r="I1531" t="n">
         <v>109.31</v>
@@ -55305,7 +55305,7 @@
         <v>4400</v>
       </c>
       <c r="L1531" t="n">
-        <v>9194</v>
+        <v>9206</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1" s="2"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -332,7 +332,7 @@
     <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L1531"/>
+  <dimension ref="A1:L1532"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" zoomScale="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -55308,6 +55308,46 @@
         <v>9206</v>
       </c>
     </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="B1532" t="n">
+        <v>86016</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>-3530</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>98088</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>94558</v>
+      </c>
+      <c r="F1532" t="n">
+        <v>180574</v>
+      </c>
+      <c r="G1532" t="n">
+        <v>120421</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>310268</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>109.31</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>203</v>
+      </c>
+      <c r="K1532" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1532" t="n">
+        <v>9273</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="2"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0"/>

--- a/Portfell.xlsx
+++ b/Portfell.xlsx
@@ -332,7 +332,7 @@
     <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:L1532"/>
+  <dimension ref="A1:L1533"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" view="normal" zoomScale="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -55348,6 +55348,46 @@
         <v>9273</v>
       </c>
     </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="B1533" t="n">
+        <v>86016</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>-3503</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>98837</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>95334</v>
+      </c>
+      <c r="F1533" t="n">
+        <v>181350</v>
+      </c>
+      <c r="G1533" t="n">
+        <v>120548</v>
+      </c>
+      <c r="H1533" t="n">
+        <v>311239</v>
+      </c>
+      <c r="I1533" t="n">
+        <v>109.31</v>
+      </c>
+      <c r="J1533" t="n">
+        <v>203</v>
+      </c>
+      <c r="K1533" t="n">
+        <v>4400</v>
+      </c>
+      <c r="L1533" t="n">
+        <v>9341</v>
+      </c>
+    </row>
     <row r="1048576" ht="12.8" customHeight="1" s="2"/>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0"/>
